--- a/Report.xlsx
+++ b/Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janma\Documents\JM\Unecrypted\Udacity - Data Science\AI Nanodegree\Project 2\My Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE0A000-2CF7-4FB6-BF3C-91CB1A78F9D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D92C9A-B7D7-4011-B45B-69613827A3E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -287,15 +287,6 @@
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -303,15 +294,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -337,6 +319,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -352,6 +352,1794 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ"/>
+              <a:t>Run time per algorithm</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>breadth first search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(List1!$C$4,List1!$C$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(List1!$C$9,List1!$C$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.9037999997854002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1829658000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F005-4B1D-8E8F-F3317EF1D7E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>depth first search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(List1!$D$4,List1!$D$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(List1!$D$9,List1!$D$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.5582000000904301E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5887878000012201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F005-4B1D-8E8F-F3317EF1D7E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>uniform cost search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(List1!$E$4,List1!$E$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(List1!$E$9,List1!$E$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.5175000000199301E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7790035999996601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F005-4B1D-8E8F-F3317EF1D7E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>greedy best first search
+ - h_pg_levelsum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(List1!$G$4,List1!$G$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(List1!$G$9,List1!$G$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.250989199999821</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.84972709999965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F005-4B1D-8E8F-F3317EF1D7E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>greedy best first search
+ - h_pg_maxlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(List1!$H$4,List1!$H$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(List1!$H$9,List1!$H$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.17961519999971601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.688836799999899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F005-4B1D-8E8F-F3317EF1D7E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>greedy best first search
+ - h_pg_maxlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(List1!$H$4,List1!$H$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(List1!$H$9,List1!$H$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.17961519999971601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.688836799999899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F005-4B1D-8E8F-F3317EF1D7E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>greedy best first search
+ - h_pg_setlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(List1!$I$4,List1!$I$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(List1!$I$9,List1!$I$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.38819860000012302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2970900000000203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-F005-4B1D-8E8F-F3317EF1D7E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a* search
+ - h_unmet_goals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(List1!$J$4,List1!$J$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(List1!$J$9,List1!$J$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5.0629000002118101E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3056961000002001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-F005-4B1D-8E8F-F3317EF1D7E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a* search
+ - h_pg_maxlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(List1!$L$4,List1!$L$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(List1!$L$9,List1!$L$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.63218820000020004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1115.4357104999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-F005-4B1D-8E8F-F3317EF1D7E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a* search
+ - h_pg_setlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(List1!$M$4,List1!$M$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(List1!$M$9,List1!$M$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.82654090000005398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>993.091442999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-F005-4B1D-8E8F-F3317EF1D7E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2032112287"/>
+        <c:axId val="1901876015"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2032112287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Actions</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1901876015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1901876015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Run</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="cs-CZ" baseline="0"/>
+                  <a:t> Time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2032112287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{184AED4C-29DB-4609-9467-C5858CD63A14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -619,8 +2407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,533 +2429,533 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="3"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="21"/>
     </row>
     <row r="3" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="10">
         <v>20</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="10">
         <v>20</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="10">
         <v>20</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="10">
         <v>20</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="10">
         <v>20</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="10">
         <v>20</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="10">
         <v>20</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="10">
         <v>20</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="10">
         <v>20</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="10">
         <v>20</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="11">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="12">
         <v>43</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="12">
         <v>21</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="12">
         <v>60</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="12">
         <v>7</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="12">
         <v>6</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="12">
         <v>6</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="12">
         <v>6</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="12">
         <v>50</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="12">
         <v>28</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="12">
         <v>43</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="12">
         <v>56</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="12">
         <v>22</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="12">
         <v>62</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="12">
         <v>9</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="12">
         <v>8</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="12">
         <v>8</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="12">
         <v>8</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="12">
         <v>52</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="12">
         <v>30</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="12">
         <v>45</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="13">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="12">
         <v>178</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="12">
         <v>84</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="12">
         <v>240</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="12">
         <v>29</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="12">
         <v>28</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="12">
         <v>24</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="12">
         <v>28</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="12">
         <v>206</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="12">
         <v>122</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="12">
         <v>180</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="13">
         <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="15">
         <v>6</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="15">
         <v>6</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="15">
         <v>6</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="15">
         <v>6</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="15">
         <v>6</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="15">
         <v>6</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="15">
         <v>6</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="15">
         <v>6</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="15">
         <v>6</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="15">
         <v>6</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="13">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="2">
         <v>2.9037999997854002E-3</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="2">
         <v>1.5582000000904301E-3</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="2">
         <v>4.5175000000199301E-3</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="2">
         <v>1.6421000000264E-3</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="2">
         <v>0.250989199999821</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="2">
         <v>0.17961519999971601</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="2">
         <v>0.38819860000012302</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="2">
         <v>5.0629000002118101E-3</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="2">
         <v>0.68454999999994404</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="2">
         <v>0.63218820000020004</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="14">
         <v>0.82654090000005398</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="10">
         <v>72</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="16">
         <v>72</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="10">
         <v>72</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="10">
         <v>72</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="10">
         <v>72</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="10">
         <v>72</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="10">
         <v>72</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="10">
         <v>72</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="10">
         <v>72</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="10">
         <v>72</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="11">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="12">
         <v>3343</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="15">
         <v>624</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="12">
         <v>5154</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="12">
         <v>17</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="12">
         <v>9</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="12">
         <v>27</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="15">
         <v>9</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="15">
         <v>2467</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="15">
         <v>357</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="15">
         <v>2887</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="13">
         <v>1037</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="12">
         <v>4609</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="15">
         <v>625</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="12">
         <v>5156</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="12">
         <v>19</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="12">
         <v>11</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="12">
         <v>29</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="15">
         <v>11</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="15">
         <v>2469</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="15">
         <v>359</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="15">
         <v>2889</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M12" s="13">
         <v>1039</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="12">
         <v>30503</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="15">
         <v>5602</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="12">
         <v>46618</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="12">
         <v>170</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="12">
         <v>86</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="12">
         <v>249</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="15">
         <v>84</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="15">
         <v>22522</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="15">
         <v>3426</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="15">
         <v>26594</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M13" s="13">
         <v>9605</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="12">
         <v>9</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="15">
         <v>619</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="12">
         <v>9</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="12">
         <v>9</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="12">
         <v>9</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="12">
         <v>9</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="15">
         <v>9</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="15">
         <v>9</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="15">
         <v>9</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="15">
         <v>9</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="2">
         <v>1.1829658000006</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="17">
         <v>1.5887878000012201</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="2">
         <v>1.7790035999996601</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="2">
         <v>1.3352000000850199E-2</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="2">
         <v>5.84972709999965</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="2">
         <v>11.688836799999899</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="2">
         <v>9.2970900000000203</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="2">
         <v>1.3056961000002001</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="2">
         <v>183.37924109999901</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="2">
         <v>1115.4357104999999</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M15" s="14">
         <v>993.091442999999</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="D16" s="24"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="D16" s="18"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1187,5 +2975,6 @@
     <mergeCell ref="A10:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Report.xlsx
+++ b/Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janma\Documents\JM\Unecrypted\Udacity - Data Science\AI Nanodegree\Project 2\My Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D92C9A-B7D7-4011-B45B-69613827A3E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C587413-AA68-44E4-9E64-D05AD6B7B037}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1545,6 +1545,1193 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ"/>
+              <a:t>Expansions per algorithm</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>breadth first search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(List1!$C$4,List1!$C$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(List1!$C$5,List1!$C$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3343</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4864-4296-8468-F423A979E236}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>depth first search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(List1!$D$4,List1!$D$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(List1!$E$5,List1!$E$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5154</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4864-4296-8468-F423A979E236}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>uniform cost search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(List1!$E$4,List1!$E$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(List1!$E$5,List1!$E$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5154</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4864-4296-8468-F423A979E236}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>greedy best first search
+ - h_pg_levelsum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(List1!$G$4,List1!$G$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(List1!$F$5,List1!$F$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4864-4296-8468-F423A979E236}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>greedy best first search
+ - h_pg_maxlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(List1!$H$4,List1!$H$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(List1!$H$5,List1!$H$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4864-4296-8468-F423A979E236}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>greedy best first search
+ - h_pg_maxlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(List1!$H$4,List1!$H$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(List1!$H$5,List1!$H$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4864-4296-8468-F423A979E236}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>greedy best first search
+ - h_pg_setlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(List1!$I$4,List1!$I$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(List1!$I$5,List1!$I$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4864-4296-8468-F423A979E236}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a* search
+ - h_unmet_goals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(List1!$J$4,List1!$J$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(List1!$J$5,List1!$J$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2467</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4864-4296-8468-F423A979E236}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a* search
+ - h_pg_maxlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(List1!$L$4,List1!$L$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(List1!$L$5,List1!$L$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2887</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-4864-4296-8468-F423A979E236}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a* search
+ - h_pg_setlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(List1!$M$4,List1!$M$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(List1!$M$5,List1!$M$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-4864-4296-8468-F423A979E236}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2032112287"/>
+        <c:axId val="1901876015"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2032112287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Actions</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1901876015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1901876015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Expansions</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2032112287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1585,7 +2772,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2134,6 +3877,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2B1758C-BD92-4168-B8F8-BD8745D2C64B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2407,8 +4188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janma\Documents\JM\Unecrypted\Udacity - Data Science\AI Nanodegree\Project 2\My Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C587413-AA68-44E4-9E64-D05AD6B7B037}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB66D6C-0836-4C36-B336-3ECDB3189A21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="List1" sheetId="1" r:id="rId1"/>
+    <sheet name="Air Cargo Problem 1 &amp; 2" sheetId="1" r:id="rId1"/>
+    <sheet name="Air Cargo Problem 3 &amp; 4" sheetId="2" r:id="rId2"/>
+    <sheet name="Answers to questions" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
   <si>
     <t>Air cargo problem 1</t>
   </si>
@@ -48,12 +50,6 @@
   </si>
   <si>
     <t>uniform cost search</t>
-  </si>
-  <si>
-    <t>uniform searches</t>
-  </si>
-  <si>
-    <t>informed searched</t>
   </si>
   <si>
     <t>greedy best first search
@@ -111,15 +107,279 @@
   <si>
     <t>Plan length</t>
   </si>
+  <si>
+    <t>Chart after removing outliers
+- removed Depth First Search (DFS)</t>
+  </si>
+  <si>
+    <t>Data of Search algorithms for Air cargo problem 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>Analysis of Search algorithms for Air cargo problem 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>Data of Search algorithms for Air cargo problem 3 &amp; 4</t>
+  </si>
+  <si>
+    <t>Chart after removing outliers
+- a* search hp_pg_maxlevel
+- a* search h_pg_setlevel
+- A* search (h_pg_level_sum) 183.37s</t>
+  </si>
+  <si>
+    <t>Answers to questions</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Question 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Which algorithm or algorithms would be most appropriate for planning in a very restricted domain (i.e., one that has only a few actions) and needs to operate in real time?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Question 2:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Which algorithm or algorithms would be most appropriate for planning in very large domains (e.g., planning delivery routes for all UPS drivers in the U.S. on a given day)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Question 3:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Which algorithm or algorithms would be most appropriate for planning problems where it is important to find only optimal plans?
+If search complexity is not a limiting factor, Breadth First works perfectly. If it's an issue, A* has</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Answer: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">For planning in very large domains (e.g., planning delivery routes for all UPS drivers in the U.S. on a given day) is ideal candidate Greedy Best First (h_unmet_goals), that was one of the fastests and kept the speed with increasing number of actions. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Answer: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A* search (h_unmet_goals) will deliver an optimal plan, while keeping reasonable run time (for Cargo Problem 2 with 72 actions it found solution under 2s)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Analysis:  Length of the plan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+You can see in the graph outlier  Deep  First Search which produces (unoptimal) plan with 619 steps for Cargo Problem 2.
+The rest of algorithms produce the same length of plan (6 steps for Cargo Problem 1, 9 steps for cargo problem 2).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Analysis:  Run time
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The sharpest increase in  run time for Air Cargo Problem 2 had A* search:
+-  A* search (h_max_level) 1115.43s
+-  A* search (h_pg_setlevel) 993.09s
+-  A* search (h_pg_level_sum) 183.37s
+All uninformed searched (DFS, BFS, Uniform Cost Search) ran under 2s
+The shortest runtime had greedy best first search  (h_unmet_goals) 0.013
+Thus for speed critical operations greedy best first search (h_unmet_goals) could be ideal candidate
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Analysis:  Comdplexity / Number of nodes expanded
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In larger domains uses the least memory Greedy First Search.  Significantly less than A* search which is second and uses less memory than uniformed searches</t>
+    </r>
+  </si>
+  <si>
+    <t>uniformed searches</t>
+  </si>
+  <si>
+    <t>informed searches</t>
+  </si>
+  <si>
+    <t>Excluded algorithms for Problem 3 and 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - depth first search as it does not find an optimal solution (619 plan length vs optimal solution consisting of 9 for Air Cargo Problem 2)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Answer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: In very restricted domain where real-time operation is needed and execution speed is important -  the ideal choice is  Greedy Best First  (h_unmet_goals) that was together with Depth First between the two  fastests for 20 actions.  Greedy best first search (h_unmet_goals) kept the speed even with increasing numbers of actions and was the  fastests algorithms  for 72 actions.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> - greedy best first search (h_pg_setlevel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - a* search (h_pg_setlevel)</t>
+  </si>
+  <si>
+    <t>a* search (h_pg_maxlevel)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -139,7 +399,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -281,11 +541,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -317,8 +597,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -336,6 +614,118 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,7 +825,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>List1!$C$3</c:f>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -445,10 +835,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -470,7 +858,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(List1!$C$4,List1!$C$10)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$C$5,'Air Cargo Problem 1 &amp; 2'!$C$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -485,7 +873,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(List1!$C$9,List1!$C$15)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$C$10,'Air Cargo Problem 1 &amp; 2'!$C$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -510,7 +898,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>List1!$D$3</c:f>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -520,10 +908,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -545,7 +931,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(List1!$D$4,List1!$D$10)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$D$5,'Air Cargo Problem 1 &amp; 2'!$D$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -560,7 +946,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(List1!$D$9,List1!$D$15)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$D$10,'Air Cargo Problem 1 &amp; 2'!$D$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -585,7 +971,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>List1!$E$3</c:f>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -595,10 +981,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -620,7 +1004,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(List1!$E$4,List1!$E$10)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$E$5,'Air Cargo Problem 1 &amp; 2'!$E$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -635,7 +1019,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(List1!$E$9,List1!$E$15)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$E$10,'Air Cargo Problem 1 &amp; 2'!$E$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -660,7 +1044,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>List1!$G$3</c:f>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -671,10 +1055,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -696,7 +1078,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(List1!$G$4,List1!$G$10)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$G$5,'Air Cargo Problem 1 &amp; 2'!$G$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -711,7 +1093,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(List1!$G$9,List1!$G$15)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$G$10,'Air Cargo Problem 1 &amp; 2'!$G$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -736,7 +1118,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>List1!$H$3</c:f>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -747,10 +1129,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -770,9 +1150,35 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>(List1!$H$4,List1!$H$10)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$H$5,'Air Cargo Problem 1 &amp; 2'!$H$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -787,7 +1193,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(List1!$H$9,List1!$H$15)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$H$10,'Air Cargo Problem 1 &amp; 2'!$H$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -812,21 +1218,19 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>List1!$H$3</c:f>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>greedy best first search
- - h_pg_maxlevel</c:v>
+ - h_unmet_goals</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -848,7 +1252,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(List1!$H$4,List1!$H$10)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$F$5,'Air Cargo Problem 1 &amp; 2'!$F$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -863,15 +1267,15 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(List1!$H$9,List1!$H$15)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$F$10,'Air Cargo Problem 1 &amp; 2'!$F$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.17961519999971601</c:v>
+                  <c:v>1.6421000000264E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.688836799999899</c:v>
+                  <c:v>1.3352000000850199E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -888,7 +1292,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>List1!$I$3</c:f>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -899,12 +1303,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -930,7 +1330,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(List1!$I$4,List1!$I$10)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$I$5,'Air Cargo Problem 1 &amp; 2'!$I$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -945,7 +1345,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(List1!$I$9,List1!$I$15)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$I$10,'Air Cargo Problem 1 &amp; 2'!$I$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -970,7 +1370,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>List1!$J$3</c:f>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -981,12 +1381,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1012,7 +1408,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(List1!$J$4,List1!$J$10)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$J$5,'Air Cargo Problem 1 &amp; 2'!$J$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1027,7 +1423,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(List1!$J$9,List1!$J$15)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$J$10,'Air Cargo Problem 1 &amp; 2'!$J$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1052,7 +1448,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>List1!$L$3</c:f>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$L$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1063,12 +1459,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1094,7 +1486,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(List1!$L$4,List1!$L$10)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$L$5,'Air Cargo Problem 1 &amp; 2'!$L$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1109,7 +1501,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(List1!$L$9,List1!$L$15)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$L$10,'Air Cargo Problem 1 &amp; 2'!$L$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1134,7 +1526,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>List1!$M$3</c:f>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1145,12 +1537,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1176,7 +1564,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(List1!$M$4,List1!$M$10)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$M$5,'Air Cargo Problem 1 &amp; 2'!$M$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1191,7 +1579,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(List1!$M$9,List1!$M$15)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$M$10,'Air Cargo Problem 1 &amp; 2'!$M$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1208,6 +1596,84 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-F005-4B1D-8E8F-F3317EF1D7E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a* search
+ - h_pg_levelsum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$K$5,'Air Cargo Problem 1 &amp; 2'!$K$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$K$10,'Air Cargo Problem 1 &amp; 2'!$K$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.68454999999994404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>183.37924109999901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F1D7-45E7-A4F2-3189A4D18EE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1626,7 +2092,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>List1!$C$3</c:f>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1636,10 +2102,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1661,7 +2125,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(List1!$C$4,List1!$C$10)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$C$5,'Air Cargo Problem 1 &amp; 2'!$C$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1676,7 +2140,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(List1!$C$5,List1!$C$11)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$C$6,'Air Cargo Problem 1 &amp; 2'!$C$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1701,7 +2165,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>List1!$D$3</c:f>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1711,10 +2175,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1736,7 +2198,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(List1!$D$4,List1!$D$10)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$D$5,'Air Cargo Problem 1 &amp; 2'!$D$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1751,7 +2213,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(List1!$E$5,List1!$E$11)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$E$6,'Air Cargo Problem 1 &amp; 2'!$E$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1776,7 +2238,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>List1!$E$3</c:f>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1786,10 +2248,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1811,7 +2271,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(List1!$E$4,List1!$E$10)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$E$5,'Air Cargo Problem 1 &amp; 2'!$E$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1826,7 +2286,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(List1!$E$5,List1!$E$11)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$E$6,'Air Cargo Problem 1 &amp; 2'!$E$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1851,7 +2311,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>List1!$G$3</c:f>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1862,10 +2322,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1887,7 +2345,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(List1!$G$4,List1!$G$10)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$G$5,'Air Cargo Problem 1 &amp; 2'!$G$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1902,7 +2360,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(List1!$F$5,List1!$F$11)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$F$6,'Air Cargo Problem 1 &amp; 2'!$F$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1927,7 +2385,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>List1!$H$3</c:f>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1938,10 +2396,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1961,9 +2417,35 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>(List1!$H$4,List1!$H$10)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$H$5,'Air Cargo Problem 1 &amp; 2'!$H$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1978,7 +2460,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(List1!$H$5,List1!$H$11)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$H$6,'Air Cargo Problem 1 &amp; 2'!$H$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2003,21 +2485,19 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>List1!$H$3</c:f>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>greedy best first search
- - h_pg_maxlevel</c:v>
+ - h_unmet_goals</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2039,7 +2519,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(List1!$H$4,List1!$H$10)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$F$5,'Air Cargo Problem 1 &amp; 2'!$F$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2054,15 +2534,15 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(List1!$H$5,List1!$H$11)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$F$6,'Air Cargo Problem 1 &amp; 2'!$F$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2079,7 +2559,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>List1!$I$3</c:f>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2090,12 +2570,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2121,7 +2597,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(List1!$I$4,List1!$I$10)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$I$5,'Air Cargo Problem 1 &amp; 2'!$I$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2136,7 +2612,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(List1!$I$5,List1!$I$11)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$I$6,'Air Cargo Problem 1 &amp; 2'!$I$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2161,7 +2637,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>List1!$J$3</c:f>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2172,12 +2648,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2203,7 +2675,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(List1!$J$4,List1!$J$10)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$J$5,'Air Cargo Problem 1 &amp; 2'!$J$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2218,7 +2690,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(List1!$J$5,List1!$J$11)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$J$6,'Air Cargo Problem 1 &amp; 2'!$J$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2243,7 +2715,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>List1!$L$3</c:f>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$L$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2254,12 +2726,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2285,7 +2753,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(List1!$L$4,List1!$L$10)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$L$5,'Air Cargo Problem 1 &amp; 2'!$L$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2300,7 +2768,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(List1!$L$5,List1!$L$11)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$L$6,'Air Cargo Problem 1 &amp; 2'!$L$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2325,7 +2793,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>List1!$M$3</c:f>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2336,12 +2804,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2367,7 +2831,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(List1!$M$4,List1!$M$10)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$M$5,'Air Cargo Problem 1 &amp; 2'!$M$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2382,7 +2846,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(List1!$M$5,List1!$M$11)</c:f>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$M$6,'Air Cargo Problem 1 &amp; 2'!$M$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2399,6 +2863,1185 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-4864-4296-8468-F423A979E236}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2032112287"/>
+        <c:axId val="1901876015"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2032112287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Actions</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1901876015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1901876015"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Expansions</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2032112287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ"/>
+              <a:t>Lentgh of the plan per algorithm</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>breadth first search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$C$5,'Air Cargo Problem 1 &amp; 2'!$C$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$C$9,'Air Cargo Problem 1 &amp; 2'!$C$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-47E5-491D-95AE-460B29AA79AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>depth first search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$D$5,'Air Cargo Problem 1 &amp; 2'!$D$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$D$9,'Air Cargo Problem 1 &amp; 2'!$D$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>619</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-47E5-491D-95AE-460B29AA79AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>uniform cost search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$E$5,'Air Cargo Problem 1 &amp; 2'!$E$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$E$9,'Air Cargo Problem 1 &amp; 2'!$E$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-47E5-491D-95AE-460B29AA79AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>greedy best first search
+ - h_pg_levelsum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$G$5,'Air Cargo Problem 1 &amp; 2'!$G$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$F$9,'Air Cargo Problem 1 &amp; 2'!$F$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-47E5-491D-95AE-460B29AA79AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>greedy best first search
+ - h_pg_maxlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$H$5,'Air Cargo Problem 1 &amp; 2'!$H$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$H$9,'Air Cargo Problem 1 &amp; 2'!$H$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-47E5-491D-95AE-460B29AA79AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>greedy best first search
+ - h_unmet_goals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$F$5,'Air Cargo Problem 1 &amp; 2'!$F$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$F$9,'Air Cargo Problem 1 &amp; 2'!$F$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-47E5-491D-95AE-460B29AA79AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>greedy best first search
+ - h_pg_setlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$I$5,'Air Cargo Problem 1 &amp; 2'!$I$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$I$9,'Air Cargo Problem 1 &amp; 2'!$I$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-47E5-491D-95AE-460B29AA79AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a* search
+ - h_unmet_goals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$J$5,'Air Cargo Problem 1 &amp; 2'!$J$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$J$9,'Air Cargo Problem 1 &amp; 2'!$J$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-47E5-491D-95AE-460B29AA79AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a* search
+ - h_pg_maxlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$L$5,'Air Cargo Problem 1 &amp; 2'!$L$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$L$9,'Air Cargo Problem 1 &amp; 2'!$L$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-47E5-491D-95AE-460B29AA79AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a* search
+ - h_pg_setlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$M$5,'Air Cargo Problem 1 &amp; 2'!$M$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$M$9,'Air Cargo Problem 1 &amp; 2'!$M$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-47E5-491D-95AE-460B29AA79AB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2732,6 +4375,2145 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ"/>
+              <a:t>Lentgh of the plan per algorithm </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>(except</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> DFS)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>breadth first search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$C$5,'Air Cargo Problem 1 &amp; 2'!$C$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$C$9,'Air Cargo Problem 1 &amp; 2'!$C$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5ADB-432B-AE8F-476F07061C1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>uniform cost search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$E$5,'Air Cargo Problem 1 &amp; 2'!$E$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$E$9,'Air Cargo Problem 1 &amp; 2'!$E$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5ADB-432B-AE8F-476F07061C1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>greedy best first search
+ - h_pg_levelsum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$G$5,'Air Cargo Problem 1 &amp; 2'!$G$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$F$9,'Air Cargo Problem 1 &amp; 2'!$F$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5ADB-432B-AE8F-476F07061C1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>greedy best first search
+ - h_pg_maxlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$H$5,'Air Cargo Problem 1 &amp; 2'!$H$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$H$9,'Air Cargo Problem 1 &amp; 2'!$H$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5ADB-432B-AE8F-476F07061C1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>greedy best first search
+ - h_unmet_goals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$F$5,'Air Cargo Problem 1 &amp; 2'!$F$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$F$9,'Air Cargo Problem 1 &amp; 2'!$F$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5ADB-432B-AE8F-476F07061C1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>greedy best first search
+ - h_pg_setlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$I$5,'Air Cargo Problem 1 &amp; 2'!$I$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$I$9,'Air Cargo Problem 1 &amp; 2'!$I$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5ADB-432B-AE8F-476F07061C1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a* search
+ - h_unmet_goals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$J$5,'Air Cargo Problem 1 &amp; 2'!$J$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$J$9,'Air Cargo Problem 1 &amp; 2'!$J$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-5ADB-432B-AE8F-476F07061C1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a* search
+ - h_pg_maxlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$L$5,'Air Cargo Problem 1 &amp; 2'!$L$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$L$9,'Air Cargo Problem 1 &amp; 2'!$L$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-5ADB-432B-AE8F-476F07061C1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a* search
+ - h_pg_setlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$M$5,'Air Cargo Problem 1 &amp; 2'!$M$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$M$9,'Air Cargo Problem 1 &amp; 2'!$M$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-5ADB-432B-AE8F-476F07061C1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2032112287"/>
+        <c:axId val="1901876015"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2032112287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Actions</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1901876015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1901876015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Expansions</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2032112287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ"/>
+              <a:t>Run time per algorithm</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>breadth first search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$C$5,'Air Cargo Problem 1 &amp; 2'!$C$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$C$10,'Air Cargo Problem 1 &amp; 2'!$C$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.9037999997854002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1829658000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D84D-432C-A5AA-8B61BC837D39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>depth first search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$D$5,'Air Cargo Problem 1 &amp; 2'!$D$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$D$10,'Air Cargo Problem 1 &amp; 2'!$D$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.5582000000904301E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5887878000012201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D84D-432C-A5AA-8B61BC837D39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>uniform cost search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$E$5,'Air Cargo Problem 1 &amp; 2'!$E$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$E$10,'Air Cargo Problem 1 &amp; 2'!$E$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.5175000000199301E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7790035999996601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D84D-432C-A5AA-8B61BC837D39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>greedy best first search
+ - h_pg_levelsum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$G$5,'Air Cargo Problem 1 &amp; 2'!$G$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$G$10,'Air Cargo Problem 1 &amp; 2'!$G$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.250989199999821</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.84972709999965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D84D-432C-A5AA-8B61BC837D39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>greedy best first search
+ - h_pg_maxlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$H$5,'Air Cargo Problem 1 &amp; 2'!$H$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$H$10,'Air Cargo Problem 1 &amp; 2'!$H$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.17961519999971601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.688836799999899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D84D-432C-A5AA-8B61BC837D39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>greedy best first search
+ - h_unmet_goals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$F$5,'Air Cargo Problem 1 &amp; 2'!$F$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$F$10,'Air Cargo Problem 1 &amp; 2'!$F$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.6421000000264E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3352000000850199E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D84D-432C-A5AA-8B61BC837D39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>greedy best first search
+ - h_pg_setlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$I$5,'Air Cargo Problem 1 &amp; 2'!$I$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$I$10,'Air Cargo Problem 1 &amp; 2'!$I$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.38819860000012302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2970900000000203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D84D-432C-A5AA-8B61BC837D39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Air Cargo Problem 1 &amp; 2'!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a* search
+ - h_unmet_goals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$J$5,'Air Cargo Problem 1 &amp; 2'!$J$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Air Cargo Problem 1 &amp; 2'!$J$10,'Air Cargo Problem 1 &amp; 2'!$J$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5.0629000002118101E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3056961000002001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D84D-432C-A5AA-8B61BC837D39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2032112287"/>
+        <c:axId val="1901876015"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2032112287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Actions</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1901876015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1901876015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Run</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="cs-CZ" baseline="0"/>
+                  <a:t> Time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2032112287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2812,6 +6594,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3844,20 +7746,1568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>269875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>125412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1222375</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3884,16 +9334,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1206499</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1485900</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>301624</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3915,6 +9365,120 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1225550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1206500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F7815EA-DE66-4459-BBD6-20C5ECCE2783}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1209674</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0729CF94-1AEC-4B7A-B4A6-B4A8608E4E23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1222375</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5C4D46A-2449-4CB8-AEF7-B9750B23843F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4186,61 +9750,1455 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
     <col min="7" max="7" width="19.140625" customWidth="1"/>
     <col min="8" max="8" width="25.5703125" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="16.42578125" customWidth="1"/>
     <col min="12" max="12" width="18.85546875" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="19" t="s">
+    <row r="2" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="34"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
+    </row>
+    <row r="4" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="19" t="s">
+      <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="21"/>
+      <c r="H4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="10">
+        <v>20</v>
+      </c>
+      <c r="D5" s="10">
+        <v>20</v>
+      </c>
+      <c r="E5" s="10">
+        <v>20</v>
+      </c>
+      <c r="F5" s="10">
+        <v>20</v>
+      </c>
+      <c r="G5" s="10">
+        <v>20</v>
+      </c>
+      <c r="H5" s="10">
+        <v>20</v>
+      </c>
+      <c r="I5" s="10">
+        <v>20</v>
+      </c>
+      <c r="J5" s="10">
+        <v>20</v>
+      </c>
+      <c r="K5" s="10">
+        <v>20</v>
+      </c>
+      <c r="L5" s="10">
+        <v>20</v>
+      </c>
+      <c r="M5" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="12">
+        <v>43</v>
+      </c>
+      <c r="D6" s="12">
+        <v>21</v>
+      </c>
+      <c r="E6" s="12">
+        <v>60</v>
+      </c>
+      <c r="F6" s="12">
+        <v>7</v>
+      </c>
+      <c r="G6" s="12">
+        <v>6</v>
+      </c>
+      <c r="H6" s="12">
+        <v>6</v>
+      </c>
+      <c r="I6" s="12">
+        <v>6</v>
+      </c>
+      <c r="J6" s="12">
+        <v>50</v>
+      </c>
+      <c r="K6" s="12">
+        <v>28</v>
+      </c>
+      <c r="L6" s="12">
+        <v>43</v>
+      </c>
+      <c r="M6" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="12">
+        <v>56</v>
+      </c>
+      <c r="D7" s="12">
+        <v>22</v>
+      </c>
+      <c r="E7" s="12">
+        <v>62</v>
+      </c>
+      <c r="F7" s="12">
+        <v>9</v>
+      </c>
+      <c r="G7" s="12">
+        <v>8</v>
+      </c>
+      <c r="H7" s="12">
+        <v>8</v>
+      </c>
+      <c r="I7" s="12">
+        <v>8</v>
+      </c>
+      <c r="J7" s="12">
+        <v>52</v>
+      </c>
+      <c r="K7" s="12">
+        <v>30</v>
+      </c>
+      <c r="L7" s="12">
+        <v>45</v>
+      </c>
+      <c r="M7" s="13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="12">
+        <v>178</v>
+      </c>
+      <c r="D8" s="12">
+        <v>84</v>
+      </c>
+      <c r="E8" s="12">
+        <v>240</v>
+      </c>
+      <c r="F8" s="12">
+        <v>29</v>
+      </c>
+      <c r="G8" s="12">
+        <v>28</v>
+      </c>
+      <c r="H8" s="12">
+        <v>24</v>
+      </c>
+      <c r="I8" s="12">
+        <v>28</v>
+      </c>
+      <c r="J8" s="12">
+        <v>206</v>
+      </c>
+      <c r="K8" s="12">
+        <v>122</v>
+      </c>
+      <c r="L8" s="12">
+        <v>180</v>
+      </c>
+      <c r="M8" s="13">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="15">
+        <v>6</v>
+      </c>
+      <c r="D9" s="15">
+        <v>6</v>
+      </c>
+      <c r="E9" s="15">
+        <v>6</v>
+      </c>
+      <c r="F9" s="15">
+        <v>6</v>
+      </c>
+      <c r="G9" s="15">
+        <v>6</v>
+      </c>
+      <c r="H9" s="15">
+        <v>6</v>
+      </c>
+      <c r="I9" s="15">
+        <v>6</v>
+      </c>
+      <c r="J9" s="15">
+        <v>6</v>
+      </c>
+      <c r="K9" s="15">
+        <v>6</v>
+      </c>
+      <c r="L9" s="15">
+        <v>6</v>
+      </c>
+      <c r="M9" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28"/>
+      <c r="B10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2.9037999997854002E-3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.5582000000904301E-3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4.5175000000199301E-3</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1.6421000000264E-3</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.250989199999821</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.17961519999971601</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.38819860000012302</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5.0629000002118101E-3</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.68454999999994404</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.63218820000020004</v>
+      </c>
+      <c r="M10" s="14">
+        <v>0.82654090000005398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="10">
+        <v>72</v>
+      </c>
+      <c r="D11" s="16">
+        <v>72</v>
+      </c>
+      <c r="E11" s="10">
+        <v>72</v>
+      </c>
+      <c r="F11" s="10">
+        <v>72</v>
+      </c>
+      <c r="G11" s="10">
+        <v>72</v>
+      </c>
+      <c r="H11" s="10">
+        <v>72</v>
+      </c>
+      <c r="I11" s="10">
+        <v>72</v>
+      </c>
+      <c r="J11" s="10">
+        <v>72</v>
+      </c>
+      <c r="K11" s="10">
+        <v>72</v>
+      </c>
+      <c r="L11" s="10">
+        <v>72</v>
+      </c>
+      <c r="M11" s="11">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
+      <c r="B12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="12">
+        <v>3343</v>
+      </c>
+      <c r="D12" s="15">
+        <v>624</v>
+      </c>
+      <c r="E12" s="12">
+        <v>5154</v>
+      </c>
+      <c r="F12" s="12">
+        <v>17</v>
+      </c>
+      <c r="G12" s="12">
+        <v>9</v>
+      </c>
+      <c r="H12" s="12">
+        <v>27</v>
+      </c>
+      <c r="I12" s="15">
+        <v>9</v>
+      </c>
+      <c r="J12" s="15">
+        <v>2467</v>
+      </c>
+      <c r="K12" s="15">
+        <v>357</v>
+      </c>
+      <c r="L12" s="15">
+        <v>2887</v>
+      </c>
+      <c r="M12" s="13">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="12">
+        <v>4609</v>
+      </c>
+      <c r="D13" s="15">
+        <v>625</v>
+      </c>
+      <c r="E13" s="12">
+        <v>5156</v>
+      </c>
+      <c r="F13" s="12">
+        <v>19</v>
+      </c>
+      <c r="G13" s="12">
+        <v>11</v>
+      </c>
+      <c r="H13" s="12">
+        <v>29</v>
+      </c>
+      <c r="I13" s="15">
+        <v>11</v>
+      </c>
+      <c r="J13" s="15">
+        <v>2469</v>
+      </c>
+      <c r="K13" s="15">
+        <v>359</v>
+      </c>
+      <c r="L13" s="15">
+        <v>2889</v>
+      </c>
+      <c r="M13" s="13">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="12">
+        <v>30503</v>
+      </c>
+      <c r="D14" s="15">
+        <v>5602</v>
+      </c>
+      <c r="E14" s="12">
+        <v>46618</v>
+      </c>
+      <c r="F14" s="12">
+        <v>170</v>
+      </c>
+      <c r="G14" s="12">
+        <v>86</v>
+      </c>
+      <c r="H14" s="12">
+        <v>249</v>
+      </c>
+      <c r="I14" s="15">
+        <v>84</v>
+      </c>
+      <c r="J14" s="15">
+        <v>22522</v>
+      </c>
+      <c r="K14" s="15">
+        <v>3426</v>
+      </c>
+      <c r="L14" s="15">
+        <v>26594</v>
+      </c>
+      <c r="M14" s="13">
+        <v>9605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="12">
+        <v>9</v>
+      </c>
+      <c r="D15" s="15">
+        <v>619</v>
+      </c>
+      <c r="E15" s="12">
+        <v>9</v>
+      </c>
+      <c r="F15" s="12">
+        <v>9</v>
+      </c>
+      <c r="G15" s="12">
+        <v>9</v>
+      </c>
+      <c r="H15" s="12">
+        <v>9</v>
+      </c>
+      <c r="I15" s="15">
+        <v>9</v>
+      </c>
+      <c r="J15" s="15">
+        <v>9</v>
+      </c>
+      <c r="K15" s="15">
+        <v>9</v>
+      </c>
+      <c r="L15" s="15">
+        <v>9</v>
+      </c>
+      <c r="M15" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="28"/>
+      <c r="B16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="12">
+        <v>1.1829658000006</v>
+      </c>
+      <c r="D16" s="15">
+        <v>1.5887878000012201</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1.7790035999996601</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1.3352000000850199E-2</v>
+      </c>
+      <c r="G16" s="12">
+        <v>5.84972709999965</v>
+      </c>
+      <c r="H16" s="12">
+        <v>11.688836799999899</v>
+      </c>
+      <c r="I16" s="12">
+        <v>9.2970900000000203</v>
+      </c>
+      <c r="J16" s="12">
+        <v>1.3056961000002001</v>
+      </c>
+      <c r="K16" s="12">
+        <v>183.37924109999901</v>
+      </c>
+      <c r="L16" s="12">
+        <v>1115.4357104999999</v>
+      </c>
+      <c r="M16" s="13">
+        <v>993.091442999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="11"/>
+    </row>
+    <row r="18" spans="1:20" ht="192" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="13"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C19" s="39"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="13"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C20" s="39"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="13"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C21" s="39"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="13"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C22" s="39"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="13"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C23" s="39"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="13"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C24" s="39"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="13"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C25" s="39"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="13"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C26" s="39"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="13"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C27" s="39"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="13"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C28" s="39"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="13"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C29" s="39"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="13"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C30" s="39"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="13"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C31" s="39"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="13"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C32" s="39"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="13"/>
+    </row>
+    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C33" s="39"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="13"/>
+    </row>
+    <row r="34" spans="3:20" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="39"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="13"/>
+    </row>
+    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C35" s="39"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="13"/>
+    </row>
+    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C36" s="39"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="13"/>
+    </row>
+    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C37" s="39"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="13"/>
+    </row>
+    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C38" s="39"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="13"/>
+    </row>
+    <row r="39" spans="3:20" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="13"/>
+    </row>
+    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C40" s="39"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="13"/>
+    </row>
+    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C41" s="39"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="13"/>
+    </row>
+    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C42" s="39"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="13"/>
+    </row>
+    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C43" s="39"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="13"/>
+    </row>
+    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C44" s="39"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="13"/>
+    </row>
+    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C45" s="39"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="13"/>
+    </row>
+    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C46" s="39"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="13"/>
+    </row>
+    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C47" s="39"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="13"/>
+    </row>
+    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C48" s="39"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="13"/>
+    </row>
+    <row r="49" spans="3:20" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="39"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="13"/>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C50" s="39"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="13"/>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C51" s="39"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="13"/>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C52" s="39"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="13"/>
+    </row>
+    <row r="53" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="1"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="14"/>
+    </row>
+    <row r="54" spans="3:20" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C54" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="34"/>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="3:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+    </row>
+    <row r="57" spans="3:20" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+    </row>
+    <row r="58" spans="3:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C54:M54"/>
+    <mergeCell ref="C56:I56"/>
+    <mergeCell ref="C57:I57"/>
+    <mergeCell ref="C58:I58"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="C17:M17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41F8556-1A0E-4BD9-BA3E-DFEDFBE18CA0}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
+    </row>
+    <row r="3" spans="1:10" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>9</v>
@@ -4248,514 +11206,396 @@
       <c r="I3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="10">
+        <v>88</v>
+      </c>
+      <c r="D4" s="10">
+        <v>88</v>
+      </c>
+      <c r="E4" s="10">
+        <v>88</v>
+      </c>
+      <c r="F4" s="10">
+        <v>88</v>
+      </c>
+      <c r="G4" s="10">
+        <v>88</v>
+      </c>
+      <c r="H4" s="10">
+        <v>88</v>
+      </c>
+      <c r="I4" s="10">
+        <v>88</v>
+      </c>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="12">
+        <v>14663</v>
+      </c>
+      <c r="D5" s="12">
+        <v>18510</v>
+      </c>
+      <c r="E5" s="12">
+        <v>25</v>
+      </c>
+      <c r="F5" s="15">
         <v>14</v>
       </c>
+      <c r="G5" s="15">
+        <v>21</v>
+      </c>
+      <c r="H5" s="15">
+        <v>7388</v>
+      </c>
+      <c r="I5" s="15">
+        <v>369</v>
+      </c>
+      <c r="J5" s="13"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C6" s="12">
+        <v>18098</v>
+      </c>
+      <c r="D6" s="12">
+        <v>18512</v>
+      </c>
+      <c r="E6" s="12">
+        <v>27</v>
+      </c>
+      <c r="F6" s="15">
+        <v>16</v>
+      </c>
+      <c r="G6" s="15">
+        <v>23</v>
+      </c>
+      <c r="H6" s="15">
+        <v>7390</v>
+      </c>
+      <c r="I6" s="15">
+        <v>371</v>
+      </c>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="15">
+        <v>129625</v>
+      </c>
+      <c r="D7" s="15">
+        <v>161936</v>
+      </c>
+      <c r="E7" s="15">
+        <v>230</v>
+      </c>
+      <c r="F7" s="15">
+        <v>126</v>
+      </c>
+      <c r="G7" s="15">
+        <v>195</v>
+      </c>
+      <c r="H7" s="15">
+        <v>65711</v>
+      </c>
+      <c r="I7" s="15">
+        <v>3403</v>
+      </c>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="10">
+      <c r="C8" s="15">
+        <v>12</v>
+      </c>
+      <c r="D8" s="15">
+        <v>12</v>
+      </c>
+      <c r="E8" s="15">
+        <v>15</v>
+      </c>
+      <c r="F8" s="15">
+        <v>14</v>
+      </c>
+      <c r="G8" s="15">
+        <v>13</v>
+      </c>
+      <c r="H8" s="15">
+        <v>12</v>
+      </c>
+      <c r="I8" s="15">
+        <v>12</v>
+      </c>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
+      <c r="B9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5.7938158000000604</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8.7262621999999492</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3.1910799999991399E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>12.0065057</v>
+      </c>
+      <c r="G9" s="2">
+        <v>16.582104699999899</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4.8949482000000399</v>
+      </c>
+      <c r="I9" s="2">
+        <v>279.9384</v>
+      </c>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="10">
-        <v>20</v>
-      </c>
-      <c r="F4" s="10">
-        <v>20</v>
-      </c>
-      <c r="G4" s="10">
-        <v>20</v>
-      </c>
-      <c r="H4" s="10">
-        <v>20</v>
-      </c>
-      <c r="I4" s="10">
-        <v>20</v>
-      </c>
-      <c r="J4" s="10">
-        <v>20</v>
-      </c>
-      <c r="K4" s="10">
-        <v>20</v>
-      </c>
-      <c r="L4" s="10">
-        <v>20</v>
-      </c>
-      <c r="M4" s="11">
-        <v>20</v>
-      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="13"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="12">
-        <v>43</v>
-      </c>
-      <c r="D5" s="12">
-        <v>21</v>
-      </c>
-      <c r="E5" s="12">
-        <v>60</v>
-      </c>
-      <c r="F5" s="12">
-        <v>7</v>
-      </c>
-      <c r="G5" s="12">
-        <v>6</v>
-      </c>
-      <c r="H5" s="12">
-        <v>6</v>
-      </c>
-      <c r="I5" s="12">
-        <v>6</v>
-      </c>
-      <c r="J5" s="12">
-        <v>50</v>
-      </c>
-      <c r="K5" s="12">
-        <v>28</v>
-      </c>
-      <c r="L5" s="12">
-        <v>43</v>
-      </c>
-      <c r="M5" s="13">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="6" t="s">
+    <row r="15" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
+      <c r="B15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="12">
-        <v>56</v>
-      </c>
-      <c r="D6" s="12">
-        <v>22</v>
-      </c>
-      <c r="E6" s="12">
-        <v>62</v>
-      </c>
-      <c r="F6" s="12">
-        <v>9</v>
-      </c>
-      <c r="G6" s="12">
-        <v>8</v>
-      </c>
-      <c r="H6" s="12">
-        <v>8</v>
-      </c>
-      <c r="I6" s="12">
-        <v>8</v>
-      </c>
-      <c r="J6" s="12">
-        <v>52</v>
-      </c>
-      <c r="K6" s="12">
-        <v>30</v>
-      </c>
-      <c r="L6" s="12">
-        <v>45</v>
-      </c>
-      <c r="M6" s="13">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="12">
-        <v>178</v>
-      </c>
-      <c r="D7" s="12">
-        <v>84</v>
-      </c>
-      <c r="E7" s="12">
-        <v>240</v>
-      </c>
-      <c r="F7" s="12">
-        <v>29</v>
-      </c>
-      <c r="G7" s="12">
-        <v>28</v>
-      </c>
-      <c r="H7" s="12">
-        <v>24</v>
-      </c>
-      <c r="I7" s="12">
-        <v>28</v>
-      </c>
-      <c r="J7" s="12">
-        <v>206</v>
-      </c>
-      <c r="K7" s="12">
-        <v>122</v>
-      </c>
-      <c r="L7" s="12">
-        <v>180</v>
-      </c>
-      <c r="M7" s="13">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="15">
-        <v>6</v>
-      </c>
-      <c r="D8" s="15">
-        <v>6</v>
-      </c>
-      <c r="E8" s="15">
-        <v>6</v>
-      </c>
-      <c r="F8" s="15">
-        <v>6</v>
-      </c>
-      <c r="G8" s="15">
-        <v>6</v>
-      </c>
-      <c r="H8" s="15">
-        <v>6</v>
-      </c>
-      <c r="I8" s="15">
-        <v>6</v>
-      </c>
-      <c r="J8" s="15">
-        <v>6</v>
-      </c>
-      <c r="K8" s="15">
-        <v>6</v>
-      </c>
-      <c r="L8" s="15">
-        <v>6</v>
-      </c>
-      <c r="M8" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2.9037999997854002E-3</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.5582000000904301E-3</v>
-      </c>
-      <c r="E9" s="2">
-        <v>4.5175000000199301E-3</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1.6421000000264E-3</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.250989199999821</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.17961519999971601</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.38819860000012302</v>
-      </c>
-      <c r="J9" s="2">
-        <v>5.0629000002118101E-3</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0.68454999999994404</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0.63218820000020004</v>
-      </c>
-      <c r="M9" s="14">
-        <v>0.82654090000005398</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="10">
-        <v>72</v>
-      </c>
-      <c r="D10" s="16">
-        <v>72</v>
-      </c>
-      <c r="E10" s="10">
-        <v>72</v>
-      </c>
-      <c r="F10" s="10">
-        <v>72</v>
-      </c>
-      <c r="G10" s="10">
-        <v>72</v>
-      </c>
-      <c r="H10" s="10">
-        <v>72</v>
-      </c>
-      <c r="I10" s="10">
-        <v>72</v>
-      </c>
-      <c r="J10" s="10">
-        <v>72</v>
-      </c>
-      <c r="K10" s="10">
-        <v>72</v>
-      </c>
-      <c r="L10" s="10">
-        <v>72</v>
-      </c>
-      <c r="M10" s="11">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="12">
-        <v>3343</v>
-      </c>
-      <c r="D11" s="15">
-        <v>624</v>
-      </c>
-      <c r="E11" s="12">
-        <v>5154</v>
-      </c>
-      <c r="F11" s="12">
-        <v>17</v>
-      </c>
-      <c r="G11" s="12">
-        <v>9</v>
-      </c>
-      <c r="H11" s="12">
-        <v>27</v>
-      </c>
-      <c r="I11" s="15">
-        <v>9</v>
-      </c>
-      <c r="J11" s="15">
-        <v>2467</v>
-      </c>
-      <c r="K11" s="15">
-        <v>357</v>
-      </c>
-      <c r="L11" s="15">
-        <v>2887</v>
-      </c>
-      <c r="M11" s="13">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="12">
-        <v>4609</v>
-      </c>
-      <c r="D12" s="15">
-        <v>625</v>
-      </c>
-      <c r="E12" s="12">
-        <v>5156</v>
-      </c>
-      <c r="F12" s="12">
-        <v>19</v>
-      </c>
-      <c r="G12" s="12">
-        <v>11</v>
-      </c>
-      <c r="H12" s="12">
-        <v>29</v>
-      </c>
-      <c r="I12" s="15">
-        <v>11</v>
-      </c>
-      <c r="J12" s="15">
-        <v>2469</v>
-      </c>
-      <c r="K12" s="15">
-        <v>359</v>
-      </c>
-      <c r="L12" s="15">
-        <v>2889</v>
-      </c>
-      <c r="M12" s="13">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="12">
-        <v>30503</v>
-      </c>
-      <c r="D13" s="15">
-        <v>5602</v>
-      </c>
-      <c r="E13" s="12">
-        <v>46618</v>
-      </c>
-      <c r="F13" s="12">
-        <v>170</v>
-      </c>
-      <c r="G13" s="12">
-        <v>86</v>
-      </c>
-      <c r="H13" s="12">
-        <v>249</v>
-      </c>
-      <c r="I13" s="15">
-        <v>84</v>
-      </c>
-      <c r="J13" s="15">
-        <v>22522</v>
-      </c>
-      <c r="K13" s="15">
-        <v>3426</v>
-      </c>
-      <c r="L13" s="15">
-        <v>26594</v>
-      </c>
-      <c r="M13" s="13">
-        <v>9605</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="12">
-        <v>9</v>
-      </c>
-      <c r="D14" s="15">
-        <v>619</v>
-      </c>
-      <c r="E14" s="12">
-        <v>9</v>
-      </c>
-      <c r="F14" s="12">
-        <v>9</v>
-      </c>
-      <c r="G14" s="12">
-        <v>9</v>
-      </c>
-      <c r="H14" s="12">
-        <v>9</v>
-      </c>
-      <c r="I14" s="15">
-        <v>9</v>
-      </c>
-      <c r="J14" s="15">
-        <v>9</v>
-      </c>
-      <c r="K14" s="15">
-        <v>9</v>
-      </c>
-      <c r="L14" s="15">
-        <v>9</v>
-      </c>
-      <c r="M14" s="13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1.1829658000006</v>
-      </c>
-      <c r="D15" s="17">
-        <v>1.5887878000012201</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1.7790035999996601</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1.3352000000850199E-2</v>
-      </c>
-      <c r="G15" s="2">
-        <v>5.84972709999965</v>
-      </c>
-      <c r="H15" s="2">
-        <v>11.688836799999899</v>
-      </c>
-      <c r="I15" s="2">
-        <v>9.2970900000000203</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1.3056961000002001</v>
-      </c>
-      <c r="K15" s="2">
-        <v>183.37924109999901</v>
-      </c>
-      <c r="L15" s="2">
-        <v>1115.4357104999999</v>
-      </c>
-      <c r="M15" s="14">
-        <v>993.091442999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="D16" s="18"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A10:A15"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9AB8FA-B53C-42CB-A245-E0F2CBCD899C}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="56"/>
+    </row>
+    <row r="2" spans="1:11" s="29" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="45"/>
+    </row>
+    <row r="3" spans="1:11" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+    </row>
+    <row r="4" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" s="29" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="48"/>
+    </row>
+    <row r="6" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="53"/>
+    </row>
+    <row r="7" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Report.xlsx
+++ b/Report.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janma\Documents\JM\Unecrypted\Udacity - Data Science\AI Nanodegree\Project 2\My Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB66D6C-0836-4C36-B336-3ECDB3189A21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6E9902-AB67-4BDA-A57A-255187DF6488}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Air Cargo Problem 1 &amp; 2" sheetId="1" r:id="rId1"/>
-    <sheet name="Air Cargo Problem 3 &amp; 4" sheetId="2" r:id="rId2"/>
-    <sheet name="Answers to questions" sheetId="3" r:id="rId3"/>
+    <sheet name="Data &amp; Analysis - Air Cargo" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="37">
   <si>
     <t>Air cargo problem 1</t>
   </si>
@@ -108,26 +106,36 @@
     <t>Plan length</t>
   </si>
   <si>
-    <t>Chart after removing outliers
-- removed Depth First Search (DFS)</t>
+    <t>uniformed searches</t>
   </si>
   <si>
-    <t>Data of Search algorithms for Air cargo problem 1 &amp; 2</t>
+    <t>informed searches</t>
   </si>
   <si>
-    <t>Analysis of Search algorithms for Air cargo problem 1 &amp; 2</t>
+    <t>Data of Search algorithms for Air cargo problems</t>
   </si>
   <si>
-    <t>Data of Search algorithms for Air cargo problem 3 &amp; 4</t>
+    <t>Analysis of Search algorithms for Air Cargo problems</t>
   </si>
   <si>
-    <t>Chart after removing outliers
-- a* search hp_pg_maxlevel
-- a* search h_pg_setlevel
-- A* search (h_pg_level_sum) 183.37s</t>
+    <t>*skipped</t>
   </si>
   <si>
-    <t>Answers to questions</t>
+    <t xml:space="preserve">
+ - depth first search as it does not find an optimal solution (619 plan length vs optimal solution consisting of 9 for Air Cargo Problem 2)
+ - greedy best first search (h_pg_setlevel)
+ - a* search (h_pg_maxlevel)
+ - a* search (h_pg_setlevel)</t>
+  </si>
+  <si>
+    <t>* To balance between run time and requirements (=at least one uninformed search, two heuristics with greedy best first search, and two heuristics with A* on problems 3 and 4) the following algorithms were excluded :
+ - depth first search as it does not find an optimal solution (619 plan length vs optimal solution consisting of 9 for Air Cargo Problem 2)
+ - greedy best first search (h_pg_setlevel)
+ - a* search (h_pg_maxlevel)
+ - a* search (h_pg_setlevel)</t>
+  </si>
+  <si>
+    <t>Answer to questions</t>
   </si>
   <si>
     <r>
@@ -147,7 +155,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Which algorithm or algorithms would be most appropriate for planning in a very restricted domain (i.e., one that has only a few actions) and needs to operate in real time?</t>
+      <t>Which algorithm or algorithms would be most appropriate for planning in a very restricted domain (i.e., one that has only a few actions) and needs to operate in real-time?
+Answer: In a very restricted domain where a real-time operation is needed and execution speed is important -  the ideal choice is  Greedy Best First  (h_unmet_goals) that was together with Depth-First between the two fastest  algorithms for 20 actions.   Greedy Best-First search (h_unmet_goals) kept the speed even with increasing numbers of actions and was the  fastest  algorithm  for 72 actions.</t>
     </r>
   </si>
   <si>
@@ -170,7 +179,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Which algorithm or algorithms would be most appropriate for planning in very large domains (e.g., planning delivery routes for all UPS drivers in the U.S. on a given day)</t>
+      <t xml:space="preserve">Which algorithm or algorithms would be most appropriate for planning in very large domains (e.g., planning delivery routes for all UPS drivers in the U.S. on a given day)
+Answer: For planning in very large domains (e.g., planning delivery routes for all UPS drivers in the U.S. on a given day) is ideal candidate Greedy Best First (h_unmet_goals), that was one of the fastest  and kept the speed with the increasing number of actions. </t>
     </r>
   </si>
   <si>
@@ -194,63 +204,18 @@
         <scheme val="minor"/>
       </rPr>
       <t>Which algorithm or algorithms would be most appropriate for planning problems where it is important to find only optimal plans?
-If search complexity is not a limiting factor, Breadth First works perfectly. If it's an issue, A* has</t>
+A* search (h_unmet_goals) will deliver an optimal plan, while keeping reasonable run time (for Cargo Problem 2 with 72 actions it found the solution under 2s)</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Answer: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">For planning in very large domains (e.g., planning delivery routes for all UPS drivers in the U.S. on a given day) is ideal candidate Greedy Best First (h_unmet_goals), that was one of the fastests and kept the speed with increasing number of actions. </t>
-    </r>
+    <t>The chart after removing outliers:
+- removed Depth First Search (DFS)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Answer: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A* search (h_unmet_goals) will deliver an optimal plan, while keeping reasonable run time (for Cargo Problem 2 with 72 actions it found solution under 2s)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Analysis:  Length of the plan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-You can see in the graph outlier  Deep  First Search which produces (unoptimal) plan with 619 steps for Cargo Problem 2.
-The rest of algorithms produce the same length of plan (6 steps for Cargo Problem 1, 9 steps for cargo problem 2).</t>
-    </r>
+    <t>The chart after removing outliers:
+- a* search hp_pg_maxlevel
+- a* search h_pg_setlevel
+- A* search (h_pg_level_sum)</t>
   </si>
   <si>
     <r>
@@ -279,14 +244,39 @@
 -  A* search (h_pg_setlevel) 993.09s
 -  A* search (h_pg_level_sum) 183.37s
 All uninformed searched (DFS, BFS, Uniform Cost Search) ran under 2s
-The shortest runtime had greedy best first search  (h_unmet_goals) 0.013
-Thus for speed critical operations greedy best first search (h_unmet_goals) could be ideal candidate
+The shortest runtime had Greedy Best-First search  (h_unmet_goals) 0.013
+Thus for speed-critical operations Greedy Best-First search (h_unmet_goals) could be an ideal candidate
 </t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Analysis:  Comdplexity / Number of nodes expanded
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Analysis:  Length of the plan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+You can see in the graph outlier  Deep  First Search which produces a (not optimal) plan with 619 steps for Cargo Problem 2.
+The rest of the algorithms produce the same length of the plan (6 steps for Cargo Problem 1, 9 steps for cargo problem 2).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Analysis:  Complexity  (Number of nodes expanded)
 </t>
     </r>
     <r>
@@ -299,48 +289,6 @@
       </rPr>
       <t>In larger domains uses the least memory Greedy First Search.  Significantly less than A* search which is second and uses less memory than uniformed searches</t>
     </r>
-  </si>
-  <si>
-    <t>uniformed searches</t>
-  </si>
-  <si>
-    <t>informed searches</t>
-  </si>
-  <si>
-    <t>Excluded algorithms for Problem 3 and 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - depth first search as it does not find an optimal solution (619 plan length vs optimal solution consisting of 9 for Air Cargo Problem 2)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Answer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: In very restricted domain where real-time operation is needed and execution speed is important -  the ideal choice is  Greedy Best First  (h_unmet_goals) that was together with Depth First between the two  fastests for 20 actions.  Greedy best first search (h_unmet_goals) kept the speed even with increasing numbers of actions and was the  fastests algorithms  for 72 actions.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> - greedy best first search (h_pg_setlevel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - a* search (h_pg_setlevel)</t>
-  </si>
-  <si>
-    <t>a* search (h_pg_maxlevel)</t>
   </si>
 </sst>
 </file>
@@ -399,7 +347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -561,11 +509,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -585,9 +607,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -597,23 +616,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -624,108 +665,111 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -825,7 +869,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$C$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -858,7 +902,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$C$5,'Air Cargo Problem 1 &amp; 2'!$C$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$C$6,'Data &amp; Analysis - Air Cargo'!$C$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -873,7 +917,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$C$10,'Air Cargo Problem 1 &amp; 2'!$C$16)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$C$11,'Data &amp; Analysis - Air Cargo'!$C$17)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -898,7 +942,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$D$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -931,7 +975,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$D$5,'Air Cargo Problem 1 &amp; 2'!$D$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$D$6,'Data &amp; Analysis - Air Cargo'!$D$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -946,7 +990,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$D$10,'Air Cargo Problem 1 &amp; 2'!$D$16)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$D$11,'Data &amp; Analysis - Air Cargo'!$D$17)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -971,7 +1015,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$E$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$E$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1004,7 +1048,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$E$5,'Air Cargo Problem 1 &amp; 2'!$E$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$E$6,'Data &amp; Analysis - Air Cargo'!$E$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1019,7 +1063,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$E$10,'Air Cargo Problem 1 &amp; 2'!$E$16)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$E$11,'Data &amp; Analysis - Air Cargo'!$E$17)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1044,7 +1088,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$G$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1078,7 +1122,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$G$5,'Air Cargo Problem 1 &amp; 2'!$G$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$G$6,'Data &amp; Analysis - Air Cargo'!$G$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1093,7 +1137,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$G$10,'Air Cargo Problem 1 &amp; 2'!$G$16)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$G$11,'Data &amp; Analysis - Air Cargo'!$G$17)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1118,7 +1162,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$H$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$H$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1175,10 +1219,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1C79-4B91-98EC-7A0196BC657B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$H$5,'Air Cargo Problem 1 &amp; 2'!$H$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$H$6,'Data &amp; Analysis - Air Cargo'!$H$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1193,7 +1242,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$H$10,'Air Cargo Problem 1 &amp; 2'!$H$16)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$H$11,'Data &amp; Analysis - Air Cargo'!$H$17)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1218,7 +1267,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$F$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$F$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1252,7 +1301,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$F$5,'Air Cargo Problem 1 &amp; 2'!$F$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$F$6,'Data &amp; Analysis - Air Cargo'!$F$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1267,7 +1316,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$F$10,'Air Cargo Problem 1 &amp; 2'!$F$16)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$F$11,'Data &amp; Analysis - Air Cargo'!$F$17)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1292,7 +1341,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$I$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$I$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1330,7 +1379,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$I$5,'Air Cargo Problem 1 &amp; 2'!$I$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$I$6,'Data &amp; Analysis - Air Cargo'!$I$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1345,7 +1394,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$I$10,'Air Cargo Problem 1 &amp; 2'!$I$16)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$I$11,'Data &amp; Analysis - Air Cargo'!$I$17)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1370,7 +1419,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$J$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1408,7 +1457,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$J$5,'Air Cargo Problem 1 &amp; 2'!$J$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$J$6,'Data &amp; Analysis - Air Cargo'!$J$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1423,7 +1472,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$J$10,'Air Cargo Problem 1 &amp; 2'!$J$16)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$J$11,'Data &amp; Analysis - Air Cargo'!$J$17)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1448,7 +1497,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$L$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$L$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1486,7 +1535,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$L$5,'Air Cargo Problem 1 &amp; 2'!$L$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$L$6,'Data &amp; Analysis - Air Cargo'!$L$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1501,7 +1550,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$L$10,'Air Cargo Problem 1 &amp; 2'!$L$16)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$L$11,'Data &amp; Analysis - Air Cargo'!$L$17)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1526,7 +1575,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$M$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$M$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1564,7 +1613,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$M$5,'Air Cargo Problem 1 &amp; 2'!$M$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$M$6,'Data &amp; Analysis - Air Cargo'!$M$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1579,7 +1628,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$M$10,'Air Cargo Problem 1 &amp; 2'!$M$16)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$M$11,'Data &amp; Analysis - Air Cargo'!$M$17)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1604,7 +1653,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$K$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$K$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1642,7 +1691,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$K$5,'Air Cargo Problem 1 &amp; 2'!$K$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$K$6,'Data &amp; Analysis - Air Cargo'!$K$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1657,7 +1706,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$K$10,'Air Cargo Problem 1 &amp; 2'!$K$16)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$K$11,'Data &amp; Analysis - Air Cargo'!$K$17)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2092,7 +2141,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$C$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2125,7 +2174,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$C$5,'Air Cargo Problem 1 &amp; 2'!$C$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$C$6,'Data &amp; Analysis - Air Cargo'!$C$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2140,7 +2189,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$C$6,'Air Cargo Problem 1 &amp; 2'!$C$12)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$C$7,'Data &amp; Analysis - Air Cargo'!$C$13)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2165,7 +2214,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$D$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2198,7 +2247,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$D$5,'Air Cargo Problem 1 &amp; 2'!$D$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$D$6,'Data &amp; Analysis - Air Cargo'!$D$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2213,7 +2262,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$E$6,'Air Cargo Problem 1 &amp; 2'!$E$12)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$E$7,'Data &amp; Analysis - Air Cargo'!$E$13)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2238,7 +2287,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$E$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$E$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2271,7 +2320,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$E$5,'Air Cargo Problem 1 &amp; 2'!$E$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$E$6,'Data &amp; Analysis - Air Cargo'!$E$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2286,7 +2335,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$E$6,'Air Cargo Problem 1 &amp; 2'!$E$12)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$E$7,'Data &amp; Analysis - Air Cargo'!$E$13)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2311,7 +2360,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$G$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2345,7 +2394,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$G$5,'Air Cargo Problem 1 &amp; 2'!$G$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$G$6,'Data &amp; Analysis - Air Cargo'!$G$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2360,7 +2409,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$F$6,'Air Cargo Problem 1 &amp; 2'!$F$12)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$F$7,'Data &amp; Analysis - Air Cargo'!$F$13)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2385,7 +2434,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$H$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$H$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2442,10 +2491,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F264-4239-BF34-EF6C219C6A3C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$H$5,'Air Cargo Problem 1 &amp; 2'!$H$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$H$6,'Data &amp; Analysis - Air Cargo'!$H$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2460,7 +2514,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$H$6,'Air Cargo Problem 1 &amp; 2'!$H$12)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$H$7,'Data &amp; Analysis - Air Cargo'!$H$13)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2485,7 +2539,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$F$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$F$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2519,7 +2573,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$F$5,'Air Cargo Problem 1 &amp; 2'!$F$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$F$6,'Data &amp; Analysis - Air Cargo'!$F$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2534,7 +2588,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$F$6,'Air Cargo Problem 1 &amp; 2'!$F$12)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$F$7,'Data &amp; Analysis - Air Cargo'!$F$13)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2559,7 +2613,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$I$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$I$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2597,7 +2651,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$I$5,'Air Cargo Problem 1 &amp; 2'!$I$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$I$6,'Data &amp; Analysis - Air Cargo'!$I$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2612,7 +2666,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$I$6,'Air Cargo Problem 1 &amp; 2'!$I$12)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$I$7,'Data &amp; Analysis - Air Cargo'!$I$13)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2637,7 +2691,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$J$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2675,7 +2729,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$J$5,'Air Cargo Problem 1 &amp; 2'!$J$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$J$6,'Data &amp; Analysis - Air Cargo'!$J$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2690,7 +2744,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$J$6,'Air Cargo Problem 1 &amp; 2'!$J$12)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$J$7,'Data &amp; Analysis - Air Cargo'!$J$13)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2715,7 +2769,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$L$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$L$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2753,7 +2807,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$L$5,'Air Cargo Problem 1 &amp; 2'!$L$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$L$6,'Data &amp; Analysis - Air Cargo'!$L$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2768,7 +2822,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$L$6,'Air Cargo Problem 1 &amp; 2'!$L$12)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$L$7,'Data &amp; Analysis - Air Cargo'!$L$13)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2793,7 +2847,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$M$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$M$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2831,7 +2885,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$M$5,'Air Cargo Problem 1 &amp; 2'!$M$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$M$6,'Data &amp; Analysis - Air Cargo'!$M$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2846,7 +2900,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$M$6,'Air Cargo Problem 1 &amp; 2'!$M$12)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$M$7,'Data &amp; Analysis - Air Cargo'!$M$13)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3278,7 +3332,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$C$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3311,7 +3365,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$C$5,'Air Cargo Problem 1 &amp; 2'!$C$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$C$6,'Data &amp; Analysis - Air Cargo'!$C$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3326,7 +3380,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$C$9,'Air Cargo Problem 1 &amp; 2'!$C$15)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$C$10,'Data &amp; Analysis - Air Cargo'!$C$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3351,7 +3405,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$D$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3384,7 +3438,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$D$5,'Air Cargo Problem 1 &amp; 2'!$D$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$D$6,'Data &amp; Analysis - Air Cargo'!$D$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3399,7 +3453,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$D$9,'Air Cargo Problem 1 &amp; 2'!$D$15)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$D$10,'Data &amp; Analysis - Air Cargo'!$D$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3424,7 +3478,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$E$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$E$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3457,7 +3511,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$E$5,'Air Cargo Problem 1 &amp; 2'!$E$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$E$6,'Data &amp; Analysis - Air Cargo'!$E$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3472,7 +3526,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$E$9,'Air Cargo Problem 1 &amp; 2'!$E$15)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$E$10,'Data &amp; Analysis - Air Cargo'!$E$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3497,7 +3551,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$G$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3531,7 +3585,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$G$5,'Air Cargo Problem 1 &amp; 2'!$G$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$G$6,'Data &amp; Analysis - Air Cargo'!$G$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3546,7 +3600,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$F$9,'Air Cargo Problem 1 &amp; 2'!$F$15)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$F$10,'Data &amp; Analysis - Air Cargo'!$F$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3571,7 +3625,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$H$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$H$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3621,10 +3675,15 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-A209-4FE1-90BB-B52533269753}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$H$5,'Air Cargo Problem 1 &amp; 2'!$H$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$H$6,'Data &amp; Analysis - Air Cargo'!$H$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3639,7 +3698,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$H$9,'Air Cargo Problem 1 &amp; 2'!$H$15)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$H$10,'Data &amp; Analysis - Air Cargo'!$H$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3664,7 +3723,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$F$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$F$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3698,7 +3757,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$F$5,'Air Cargo Problem 1 &amp; 2'!$F$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$F$6,'Data &amp; Analysis - Air Cargo'!$F$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3713,7 +3772,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$F$9,'Air Cargo Problem 1 &amp; 2'!$F$15)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$F$10,'Data &amp; Analysis - Air Cargo'!$F$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3738,7 +3797,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$I$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$I$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3776,7 +3835,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$I$5,'Air Cargo Problem 1 &amp; 2'!$I$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$I$6,'Data &amp; Analysis - Air Cargo'!$I$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3791,7 +3850,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$I$9,'Air Cargo Problem 1 &amp; 2'!$I$15)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$I$10,'Data &amp; Analysis - Air Cargo'!$I$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3816,7 +3875,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$J$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3854,7 +3913,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$J$5,'Air Cargo Problem 1 &amp; 2'!$J$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$J$6,'Data &amp; Analysis - Air Cargo'!$J$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3869,7 +3928,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$J$9,'Air Cargo Problem 1 &amp; 2'!$J$15)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$J$10,'Data &amp; Analysis - Air Cargo'!$J$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3894,7 +3953,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$L$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$L$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3932,7 +3991,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$L$5,'Air Cargo Problem 1 &amp; 2'!$L$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$L$6,'Data &amp; Analysis - Air Cargo'!$L$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3947,7 +4006,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$L$9,'Air Cargo Problem 1 &amp; 2'!$L$15)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$L$10,'Data &amp; Analysis - Air Cargo'!$L$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3972,7 +4031,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$M$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$M$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4010,7 +4069,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$M$5,'Air Cargo Problem 1 &amp; 2'!$M$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$M$6,'Data &amp; Analysis - Air Cargo'!$M$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4025,7 +4084,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$M$9,'Air Cargo Problem 1 &amp; 2'!$M$15)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$M$10,'Data &amp; Analysis - Air Cargo'!$M$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4464,7 +4523,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$C$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4497,7 +4556,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$C$5,'Air Cargo Problem 1 &amp; 2'!$C$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$C$6,'Data &amp; Analysis - Air Cargo'!$C$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4512,7 +4571,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$C$9,'Air Cargo Problem 1 &amp; 2'!$C$15)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$C$10,'Data &amp; Analysis - Air Cargo'!$C$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4537,7 +4596,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$E$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$E$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4570,7 +4629,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$E$5,'Air Cargo Problem 1 &amp; 2'!$E$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$E$6,'Data &amp; Analysis - Air Cargo'!$E$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4585,7 +4644,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$E$9,'Air Cargo Problem 1 &amp; 2'!$E$15)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$E$10,'Data &amp; Analysis - Air Cargo'!$E$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4610,7 +4669,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$G$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4644,7 +4703,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$G$5,'Air Cargo Problem 1 &amp; 2'!$G$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$G$6,'Data &amp; Analysis - Air Cargo'!$G$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4659,7 +4718,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$F$9,'Air Cargo Problem 1 &amp; 2'!$F$15)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$F$10,'Data &amp; Analysis - Air Cargo'!$F$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4684,7 +4743,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$H$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$H$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4734,10 +4793,15 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-3944-4D4A-8D0E-DAEFFDFBF49E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$H$5,'Air Cargo Problem 1 &amp; 2'!$H$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$H$6,'Data &amp; Analysis - Air Cargo'!$H$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4752,7 +4816,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$H$9,'Air Cargo Problem 1 &amp; 2'!$H$15)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$H$10,'Data &amp; Analysis - Air Cargo'!$H$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4777,7 +4841,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$F$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$F$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4811,7 +4875,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$F$5,'Air Cargo Problem 1 &amp; 2'!$F$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$F$6,'Data &amp; Analysis - Air Cargo'!$F$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4826,7 +4890,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$F$9,'Air Cargo Problem 1 &amp; 2'!$F$15)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$F$10,'Data &amp; Analysis - Air Cargo'!$F$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4851,7 +4915,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$I$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$I$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4889,7 +4953,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$I$5,'Air Cargo Problem 1 &amp; 2'!$I$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$I$6,'Data &amp; Analysis - Air Cargo'!$I$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4904,7 +4968,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$I$9,'Air Cargo Problem 1 &amp; 2'!$I$15)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$I$10,'Data &amp; Analysis - Air Cargo'!$I$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4929,7 +4993,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$J$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4967,7 +5031,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$J$5,'Air Cargo Problem 1 &amp; 2'!$J$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$J$6,'Data &amp; Analysis - Air Cargo'!$J$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4982,7 +5046,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$J$9,'Air Cargo Problem 1 &amp; 2'!$J$15)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$J$10,'Data &amp; Analysis - Air Cargo'!$J$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5007,7 +5071,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$L$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$L$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5045,7 +5109,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$L$5,'Air Cargo Problem 1 &amp; 2'!$L$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$L$6,'Data &amp; Analysis - Air Cargo'!$L$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5060,7 +5124,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$L$9,'Air Cargo Problem 1 &amp; 2'!$L$15)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$L$10,'Data &amp; Analysis - Air Cargo'!$L$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5085,7 +5149,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$M$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$M$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5123,7 +5187,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$M$5,'Air Cargo Problem 1 &amp; 2'!$M$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$M$6,'Data &amp; Analysis - Air Cargo'!$M$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5138,7 +5202,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$M$9,'Air Cargo Problem 1 &amp; 2'!$M$15)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$M$10,'Data &amp; Analysis - Air Cargo'!$M$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5569,7 +5633,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$C$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5602,7 +5666,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$C$5,'Air Cargo Problem 1 &amp; 2'!$C$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$C$6,'Data &amp; Analysis - Air Cargo'!$C$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5617,7 +5681,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$C$10,'Air Cargo Problem 1 &amp; 2'!$C$16)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$C$11,'Data &amp; Analysis - Air Cargo'!$C$17)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5642,7 +5706,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$D$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5675,7 +5739,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$D$5,'Air Cargo Problem 1 &amp; 2'!$D$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$D$6,'Data &amp; Analysis - Air Cargo'!$D$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5690,7 +5754,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$D$10,'Air Cargo Problem 1 &amp; 2'!$D$16)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$D$11,'Data &amp; Analysis - Air Cargo'!$D$17)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5715,7 +5779,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$E$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$E$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5748,7 +5812,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$E$5,'Air Cargo Problem 1 &amp; 2'!$E$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$E$6,'Data &amp; Analysis - Air Cargo'!$E$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5763,7 +5827,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$E$10,'Air Cargo Problem 1 &amp; 2'!$E$16)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$E$11,'Data &amp; Analysis - Air Cargo'!$E$17)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5788,7 +5852,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$G$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5822,7 +5886,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$G$5,'Air Cargo Problem 1 &amp; 2'!$G$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$G$6,'Data &amp; Analysis - Air Cargo'!$G$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5837,7 +5901,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$G$10,'Air Cargo Problem 1 &amp; 2'!$G$16)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$G$11,'Data &amp; Analysis - Air Cargo'!$G$17)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5862,7 +5926,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$H$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$H$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5912,10 +5976,15 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-15EF-446A-9854-6C70FD424147}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$H$5,'Air Cargo Problem 1 &amp; 2'!$H$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$H$6,'Data &amp; Analysis - Air Cargo'!$H$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5930,7 +5999,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$H$10,'Air Cargo Problem 1 &amp; 2'!$H$16)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$H$11,'Data &amp; Analysis - Air Cargo'!$H$17)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5955,7 +6024,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$F$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$F$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5989,7 +6058,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$F$5,'Air Cargo Problem 1 &amp; 2'!$F$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$F$6,'Data &amp; Analysis - Air Cargo'!$F$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6004,7 +6073,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$F$10,'Air Cargo Problem 1 &amp; 2'!$F$16)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$F$11,'Data &amp; Analysis - Air Cargo'!$F$17)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6029,7 +6098,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$I$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$I$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6067,7 +6136,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$I$5,'Air Cargo Problem 1 &amp; 2'!$I$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$I$6,'Data &amp; Analysis - Air Cargo'!$I$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6082,7 +6151,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$I$10,'Air Cargo Problem 1 &amp; 2'!$I$16)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$I$11,'Data &amp; Analysis - Air Cargo'!$I$17)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6107,7 +6176,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Air Cargo Problem 1 &amp; 2'!$J$4</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6145,7 +6214,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$J$5,'Air Cargo Problem 1 &amp; 2'!$J$11)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$J$6,'Data &amp; Analysis - Air Cargo'!$J$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6160,7 +6229,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Air Cargo Problem 1 &amp; 2'!$J$10,'Air Cargo Problem 1 &amp; 2'!$J$16)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$J$11,'Data &amp; Analysis - Air Cargo'!$J$17)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -9298,16 +9367,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>269875</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>125412</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1222375</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>802822</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>979714</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9334,16 +9403,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1206499</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1504495</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>52615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>301624</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1034143</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>2720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9372,16 +9441,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1225550</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>810532</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>58964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1206500</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1483179</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>1020535</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9410,16 +9479,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1209674</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>772884</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>73479</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1469571</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>476251</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9448,16 +9517,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>206375</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>48079</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1222375</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>802822</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>476251</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9750,1852 +9819,2117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T58"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N77" sqref="A1:N77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="32" t="s">
+    <row r="2" spans="1:13" s="33" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22"/>
+    </row>
+    <row r="3" spans="1:13" s="33" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="43"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="34"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="25"/>
-    </row>
-    <row r="4" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="10">
-        <v>20</v>
-      </c>
-      <c r="D5" s="10">
-        <v>20</v>
-      </c>
-      <c r="E5" s="10">
-        <v>20</v>
-      </c>
-      <c r="F5" s="10">
-        <v>20</v>
-      </c>
-      <c r="G5" s="10">
-        <v>20</v>
-      </c>
-      <c r="H5" s="10">
-        <v>20</v>
-      </c>
-      <c r="I5" s="10">
-        <v>20</v>
-      </c>
-      <c r="J5" s="10">
-        <v>20</v>
-      </c>
-      <c r="K5" s="10">
-        <v>20</v>
-      </c>
-      <c r="L5" s="10">
-        <v>20</v>
-      </c>
-      <c r="M5" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="12">
-        <v>43</v>
-      </c>
-      <c r="D6" s="12">
-        <v>21</v>
-      </c>
-      <c r="E6" s="12">
-        <v>60</v>
-      </c>
-      <c r="F6" s="12">
-        <v>7</v>
-      </c>
-      <c r="G6" s="12">
-        <v>6</v>
-      </c>
-      <c r="H6" s="12">
-        <v>6</v>
-      </c>
-      <c r="I6" s="12">
-        <v>6</v>
-      </c>
-      <c r="J6" s="12">
-        <v>50</v>
-      </c>
-      <c r="K6" s="12">
-        <v>28</v>
-      </c>
-      <c r="L6" s="12">
-        <v>43</v>
-      </c>
-      <c r="M6" s="13">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="12">
-        <v>56</v>
-      </c>
-      <c r="D7" s="12">
-        <v>22</v>
-      </c>
-      <c r="E7" s="12">
-        <v>62</v>
-      </c>
-      <c r="F7" s="12">
-        <v>9</v>
-      </c>
-      <c r="G7" s="12">
-        <v>8</v>
-      </c>
-      <c r="H7" s="12">
-        <v>8</v>
-      </c>
-      <c r="I7" s="12">
-        <v>8</v>
-      </c>
-      <c r="J7" s="12">
-        <v>52</v>
-      </c>
-      <c r="K7" s="12">
-        <v>30</v>
-      </c>
-      <c r="L7" s="12">
-        <v>45</v>
-      </c>
-      <c r="M7" s="13">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="12">
-        <v>178</v>
-      </c>
-      <c r="D8" s="12">
-        <v>84</v>
-      </c>
-      <c r="E8" s="12">
-        <v>240</v>
-      </c>
-      <c r="F8" s="12">
-        <v>29</v>
-      </c>
-      <c r="G8" s="12">
-        <v>28</v>
-      </c>
-      <c r="H8" s="12">
-        <v>24</v>
-      </c>
-      <c r="I8" s="12">
-        <v>28</v>
-      </c>
-      <c r="J8" s="12">
-        <v>206</v>
-      </c>
-      <c r="K8" s="12">
-        <v>122</v>
-      </c>
-      <c r="L8" s="12">
-        <v>180</v>
-      </c>
-      <c r="M8" s="13">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="15">
-        <v>6</v>
-      </c>
-      <c r="D9" s="15">
-        <v>6</v>
-      </c>
-      <c r="E9" s="15">
-        <v>6</v>
-      </c>
-      <c r="F9" s="15">
-        <v>6</v>
-      </c>
-      <c r="G9" s="15">
-        <v>6</v>
-      </c>
-      <c r="H9" s="15">
-        <v>6</v>
-      </c>
-      <c r="I9" s="15">
-        <v>6</v>
-      </c>
-      <c r="J9" s="15">
-        <v>6</v>
-      </c>
-      <c r="K9" s="15">
-        <v>6</v>
-      </c>
-      <c r="L9" s="15">
-        <v>6</v>
-      </c>
-      <c r="M9" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2.9037999997854002E-3</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.5582000000904301E-3</v>
-      </c>
-      <c r="E10" s="2">
-        <v>4.5175000000199301E-3</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1.6421000000264E-3</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.250989199999821</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.17961519999971601</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.38819860000012302</v>
-      </c>
-      <c r="J10" s="2">
-        <v>5.0629000002118101E-3</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0.68454999999994404</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0.63218820000020004</v>
-      </c>
-      <c r="M10" s="14">
-        <v>0.82654090000005398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="10">
-        <v>72</v>
-      </c>
-      <c r="D11" s="16">
-        <v>72</v>
-      </c>
-      <c r="E11" s="10">
-        <v>72</v>
-      </c>
-      <c r="F11" s="10">
-        <v>72</v>
-      </c>
-      <c r="G11" s="10">
-        <v>72</v>
-      </c>
-      <c r="H11" s="10">
-        <v>72</v>
-      </c>
-      <c r="I11" s="10">
-        <v>72</v>
-      </c>
-      <c r="J11" s="10">
-        <v>72</v>
-      </c>
-      <c r="K11" s="10">
-        <v>72</v>
-      </c>
-      <c r="L11" s="10">
-        <v>72</v>
-      </c>
-      <c r="M11" s="11">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="12">
-        <v>3343</v>
-      </c>
-      <c r="D12" s="15">
-        <v>624</v>
-      </c>
-      <c r="E12" s="12">
-        <v>5154</v>
-      </c>
-      <c r="F12" s="12">
-        <v>17</v>
-      </c>
-      <c r="G12" s="12">
-        <v>9</v>
-      </c>
-      <c r="H12" s="12">
-        <v>27</v>
-      </c>
-      <c r="I12" s="15">
-        <v>9</v>
-      </c>
-      <c r="J12" s="15">
-        <v>2467</v>
-      </c>
-      <c r="K12" s="15">
-        <v>357</v>
-      </c>
-      <c r="L12" s="15">
-        <v>2887</v>
-      </c>
-      <c r="M12" s="13">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="12">
-        <v>4609</v>
-      </c>
-      <c r="D13" s="15">
-        <v>625</v>
-      </c>
-      <c r="E13" s="12">
-        <v>5156</v>
-      </c>
-      <c r="F13" s="12">
-        <v>19</v>
-      </c>
-      <c r="G13" s="12">
-        <v>11</v>
-      </c>
-      <c r="H13" s="12">
-        <v>29</v>
-      </c>
-      <c r="I13" s="15">
-        <v>11</v>
-      </c>
-      <c r="J13" s="15">
-        <v>2469</v>
-      </c>
-      <c r="K13" s="15">
-        <v>359</v>
-      </c>
-      <c r="L13" s="15">
-        <v>2889</v>
-      </c>
-      <c r="M13" s="13">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="12">
-        <v>30503</v>
-      </c>
-      <c r="D14" s="15">
-        <v>5602</v>
-      </c>
-      <c r="E14" s="12">
-        <v>46618</v>
-      </c>
-      <c r="F14" s="12">
-        <v>170</v>
-      </c>
-      <c r="G14" s="12">
-        <v>86</v>
-      </c>
-      <c r="H14" s="12">
-        <v>249</v>
-      </c>
-      <c r="I14" s="15">
-        <v>84</v>
-      </c>
-      <c r="J14" s="15">
-        <v>22522</v>
-      </c>
-      <c r="K14" s="15">
-        <v>3426</v>
-      </c>
-      <c r="L14" s="15">
-        <v>26594</v>
-      </c>
-      <c r="M14" s="13">
-        <v>9605</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="12">
-        <v>9</v>
-      </c>
-      <c r="D15" s="15">
-        <v>619</v>
-      </c>
-      <c r="E15" s="12">
-        <v>9</v>
-      </c>
-      <c r="F15" s="12">
-        <v>9</v>
-      </c>
-      <c r="G15" s="12">
-        <v>9</v>
-      </c>
-      <c r="H15" s="12">
-        <v>9</v>
-      </c>
-      <c r="I15" s="15">
-        <v>9</v>
-      </c>
-      <c r="J15" s="15">
-        <v>9</v>
-      </c>
-      <c r="K15" s="15">
-        <v>9</v>
-      </c>
-      <c r="L15" s="15">
-        <v>9</v>
-      </c>
-      <c r="M15" s="13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="12">
-        <v>1.1829658000006</v>
-      </c>
-      <c r="D16" s="15">
-        <v>1.5887878000012201</v>
-      </c>
-      <c r="E16" s="12">
-        <v>1.7790035999996601</v>
-      </c>
-      <c r="F16" s="12">
-        <v>1.3352000000850199E-2</v>
-      </c>
-      <c r="G16" s="12">
-        <v>5.84972709999965</v>
-      </c>
-      <c r="H16" s="12">
-        <v>11.688836799999899</v>
-      </c>
-      <c r="I16" s="12">
-        <v>9.2970900000000203</v>
-      </c>
-      <c r="J16" s="12">
-        <v>1.3056961000002001</v>
-      </c>
-      <c r="K16" s="12">
-        <v>183.37924109999901</v>
-      </c>
-      <c r="L16" s="12">
-        <v>1115.4357104999999</v>
-      </c>
-      <c r="M16" s="13">
-        <v>993.091442999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="11"/>
-    </row>
-    <row r="18" spans="1:20" ht="192" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="13"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C19" s="39"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="13"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C20" s="39"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="13"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C21" s="39"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="13"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C22" s="39"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="13"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C23" s="39"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="13"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C24" s="39"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="13"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C25" s="39"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="13"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C26" s="39"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="13"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C27" s="39"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="13"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C28" s="39"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="13"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C29" s="39"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="13"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C30" s="39"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="13"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C31" s="39"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="13"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C32" s="39"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="13"/>
-    </row>
-    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C33" s="39"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="13"/>
-    </row>
-    <row r="34" spans="3:20" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="39"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="13"/>
-    </row>
-    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C35" s="39"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="13"/>
-    </row>
-    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C36" s="39"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="13"/>
-    </row>
-    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C37" s="39"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="13"/>
-    </row>
-    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C38" s="39"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="13"/>
-    </row>
-    <row r="39" spans="3:20" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="13"/>
-    </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C40" s="39"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
-      <c r="T40" s="13"/>
-    </row>
-    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C41" s="39"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="12"/>
-      <c r="T41" s="13"/>
-    </row>
-    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C42" s="39"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
-      <c r="S42" s="12"/>
-      <c r="T42" s="13"/>
-    </row>
-    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C43" s="39"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
-      <c r="T43" s="13"/>
-    </row>
-    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C44" s="39"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
-      <c r="S44" s="12"/>
-      <c r="T44" s="13"/>
-    </row>
-    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C45" s="39"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="12"/>
-      <c r="S45" s="12"/>
-      <c r="T45" s="13"/>
-    </row>
-    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C46" s="39"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="12"/>
-      <c r="S46" s="12"/>
-      <c r="T46" s="13"/>
-    </row>
-    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C47" s="39"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="12"/>
-      <c r="S47" s="12"/>
-      <c r="T47" s="13"/>
-    </row>
-    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C48" s="39"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="12"/>
-      <c r="S48" s="12"/>
-      <c r="T48" s="13"/>
-    </row>
-    <row r="49" spans="3:20" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="39"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="12"/>
-      <c r="S49" s="12"/>
-      <c r="T49" s="13"/>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C50" s="39"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
-      <c r="S50" s="12"/>
-      <c r="T50" s="13"/>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C51" s="39"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
-      <c r="T51" s="13"/>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C52" s="39"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="12"/>
-      <c r="S52" s="12"/>
-      <c r="T52" s="13"/>
-    </row>
-    <row r="53" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="1"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="14"/>
-    </row>
-    <row r="54" spans="3:20" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="34"/>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="3:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-    </row>
-    <row r="57" spans="3:20" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-    </row>
-    <row r="58" spans="3:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C54:M54"/>
-    <mergeCell ref="C56:I56"/>
-    <mergeCell ref="C57:I57"/>
-    <mergeCell ref="C58:I58"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="C17:M17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A16"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41F8556-1A0E-4BD9-BA3E-DFEDFBE18CA0}">
-  <dimension ref="A1:J15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="38"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
-    </row>
-    <row r="3" spans="1:10" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="10">
-        <v>88</v>
-      </c>
-      <c r="D4" s="10">
-        <v>88</v>
-      </c>
-      <c r="E4" s="10">
-        <v>88</v>
-      </c>
-      <c r="F4" s="10">
-        <v>88</v>
-      </c>
-      <c r="G4" s="10">
-        <v>88</v>
-      </c>
-      <c r="H4" s="10">
-        <v>88</v>
-      </c>
-      <c r="I4" s="10">
-        <v>88</v>
-      </c>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="12">
-        <v>14663</v>
-      </c>
-      <c r="D5" s="12">
-        <v>18510</v>
-      </c>
-      <c r="E5" s="12">
-        <v>25</v>
-      </c>
-      <c r="F5" s="15">
-        <v>14</v>
-      </c>
-      <c r="G5" s="15">
-        <v>21</v>
-      </c>
-      <c r="H5" s="15">
-        <v>7388</v>
-      </c>
-      <c r="I5" s="15">
-        <v>369</v>
-      </c>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="12">
-        <v>18098</v>
-      </c>
-      <c r="D6" s="12">
-        <v>18512</v>
-      </c>
-      <c r="E6" s="12">
-        <v>27</v>
-      </c>
-      <c r="F6" s="15">
-        <v>16</v>
-      </c>
-      <c r="G6" s="15">
-        <v>23</v>
-      </c>
-      <c r="H6" s="15">
-        <v>7390</v>
-      </c>
-      <c r="I6" s="15">
-        <v>371</v>
-      </c>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="15">
-        <v>129625</v>
-      </c>
-      <c r="D7" s="15">
-        <v>161936</v>
-      </c>
-      <c r="E7" s="15">
-        <v>230</v>
-      </c>
-      <c r="F7" s="15">
-        <v>126</v>
-      </c>
-      <c r="G7" s="15">
-        <v>195</v>
-      </c>
-      <c r="H7" s="15">
-        <v>65711</v>
-      </c>
-      <c r="I7" s="15">
-        <v>3403</v>
-      </c>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="15">
-        <v>12</v>
-      </c>
-      <c r="D8" s="15">
-        <v>12</v>
-      </c>
-      <c r="E8" s="15">
-        <v>15</v>
-      </c>
-      <c r="F8" s="15">
-        <v>14</v>
-      </c>
-      <c r="G8" s="15">
-        <v>13</v>
-      </c>
-      <c r="H8" s="15">
-        <v>12</v>
-      </c>
-      <c r="I8" s="15">
-        <v>12</v>
-      </c>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2">
-        <v>5.7938158000000604</v>
-      </c>
-      <c r="D9" s="2">
-        <v>8.7262621999999492</v>
-      </c>
-      <c r="E9" s="2">
-        <v>3.1910799999991399E-2</v>
-      </c>
-      <c r="F9" s="2">
-        <v>12.0065057</v>
-      </c>
-      <c r="G9" s="2">
-        <v>16.582104699999899</v>
-      </c>
-      <c r="H9" s="3">
-        <v>4.8949482000000399</v>
-      </c>
-      <c r="I9" s="2">
-        <v>279.9384</v>
-      </c>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="14"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9AB8FA-B53C-42CB-A245-E0F2CBCD899C}">
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="56"/>
-    </row>
-    <row r="2" spans="1:11" s="29" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="45"/>
-    </row>
-    <row r="3" spans="1:11" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
-    </row>
-    <row r="4" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
       <c r="G4" s="35"/>
       <c r="H4" s="35"/>
       <c r="I4" s="35"/>
       <c r="J4" s="35"/>
-      <c r="K4" s="53"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="36"/>
     </row>
-    <row r="5" spans="1:11" s="29" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="9">
+        <v>20</v>
+      </c>
+      <c r="D6" s="9">
+        <v>20</v>
+      </c>
+      <c r="E6" s="9">
+        <v>20</v>
+      </c>
+      <c r="F6" s="9">
+        <v>20</v>
+      </c>
+      <c r="G6" s="9">
+        <v>20</v>
+      </c>
+      <c r="H6" s="9">
+        <v>20</v>
+      </c>
+      <c r="I6" s="9">
+        <v>20</v>
+      </c>
+      <c r="J6" s="9">
+        <v>20</v>
+      </c>
+      <c r="K6" s="9">
+        <v>20</v>
+      </c>
+      <c r="L6" s="9">
+        <v>20</v>
+      </c>
+      <c r="M6" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="11">
+        <v>43</v>
+      </c>
+      <c r="D7" s="11">
+        <v>21</v>
+      </c>
+      <c r="E7" s="11">
+        <v>60</v>
+      </c>
+      <c r="F7" s="11">
+        <v>7</v>
+      </c>
+      <c r="G7" s="11">
+        <v>6</v>
+      </c>
+      <c r="H7" s="11">
+        <v>6</v>
+      </c>
+      <c r="I7" s="11">
+        <v>6</v>
+      </c>
+      <c r="J7" s="11">
+        <v>50</v>
+      </c>
+      <c r="K7" s="11">
+        <v>28</v>
+      </c>
+      <c r="L7" s="11">
+        <v>43</v>
+      </c>
+      <c r="M7" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="11">
+        <v>56</v>
+      </c>
+      <c r="D8" s="11">
+        <v>22</v>
+      </c>
+      <c r="E8" s="11">
+        <v>62</v>
+      </c>
+      <c r="F8" s="11">
+        <v>9</v>
+      </c>
+      <c r="G8" s="11">
+        <v>8</v>
+      </c>
+      <c r="H8" s="11">
+        <v>8</v>
+      </c>
+      <c r="I8" s="11">
+        <v>8</v>
+      </c>
+      <c r="J8" s="11">
+        <v>52</v>
+      </c>
+      <c r="K8" s="11">
         <v>30</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="48"/>
+      <c r="L8" s="11">
+        <v>45</v>
+      </c>
+      <c r="M8" s="12">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="11">
+        <v>178</v>
+      </c>
+      <c r="D9" s="11">
+        <v>84</v>
+      </c>
+      <c r="E9" s="11">
+        <v>240</v>
+      </c>
+      <c r="F9" s="11">
         <v>29</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="53"/>
+      <c r="G9" s="11">
+        <v>28</v>
+      </c>
+      <c r="H9" s="11">
+        <v>24</v>
+      </c>
+      <c r="I9" s="11">
+        <v>28</v>
+      </c>
+      <c r="J9" s="11">
+        <v>206</v>
+      </c>
+      <c r="K9" s="11">
+        <v>122</v>
+      </c>
+      <c r="L9" s="11">
+        <v>180</v>
+      </c>
+      <c r="M9" s="12">
+        <v>138</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="14">
+        <v>6</v>
+      </c>
+      <c r="D10" s="14">
+        <v>6</v>
+      </c>
+      <c r="E10" s="14">
+        <v>6</v>
+      </c>
+      <c r="F10" s="14">
+        <v>6</v>
+      </c>
+      <c r="G10" s="14">
+        <v>6</v>
+      </c>
+      <c r="H10" s="14">
+        <v>6</v>
+      </c>
+      <c r="I10" s="14">
+        <v>6</v>
+      </c>
+      <c r="J10" s="14">
+        <v>6</v>
+      </c>
+      <c r="K10" s="14">
+        <v>6</v>
+      </c>
+      <c r="L10" s="14">
+        <v>6</v>
+      </c>
+      <c r="M10" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="39"/>
+      <c r="B11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2.9037999997854002E-3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.5582000000904301E-3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4.5175000000199301E-3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1.6421000000264E-3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.250989199999821</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.17961519999971601</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.38819860000012302</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5.0629000002118101E-3</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.68454999999994404</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.63218820000020004</v>
+      </c>
+      <c r="M11" s="13">
+        <v>0.82654090000005398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="9">
+        <v>72</v>
+      </c>
+      <c r="D12" s="15">
+        <v>72</v>
+      </c>
+      <c r="E12" s="9">
+        <v>72</v>
+      </c>
+      <c r="F12" s="9">
+        <v>72</v>
+      </c>
+      <c r="G12" s="9">
+        <v>72</v>
+      </c>
+      <c r="H12" s="9">
+        <v>72</v>
+      </c>
+      <c r="I12" s="9">
+        <v>72</v>
+      </c>
+      <c r="J12" s="9">
+        <v>72</v>
+      </c>
+      <c r="K12" s="9">
+        <v>72</v>
+      </c>
+      <c r="L12" s="9">
+        <v>72</v>
+      </c>
+      <c r="M12" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="11">
+        <v>3343</v>
+      </c>
+      <c r="D13" s="14">
+        <v>624</v>
+      </c>
+      <c r="E13" s="11">
+        <v>5154</v>
+      </c>
+      <c r="F13" s="11">
+        <v>17</v>
+      </c>
+      <c r="G13" s="11">
+        <v>9</v>
+      </c>
+      <c r="H13" s="11">
+        <v>27</v>
+      </c>
+      <c r="I13" s="14">
+        <v>9</v>
+      </c>
+      <c r="J13" s="14">
+        <v>2467</v>
+      </c>
+      <c r="K13" s="14">
+        <v>357</v>
+      </c>
+      <c r="L13" s="14">
+        <v>2887</v>
+      </c>
+      <c r="M13" s="12">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="11">
+        <v>4609</v>
+      </c>
+      <c r="D14" s="14">
+        <v>625</v>
+      </c>
+      <c r="E14" s="11">
+        <v>5156</v>
+      </c>
+      <c r="F14" s="11">
+        <v>19</v>
+      </c>
+      <c r="G14" s="11">
+        <v>11</v>
+      </c>
+      <c r="H14" s="11">
+        <v>29</v>
+      </c>
+      <c r="I14" s="14">
+        <v>11</v>
+      </c>
+      <c r="J14" s="14">
+        <v>2469</v>
+      </c>
+      <c r="K14" s="14">
+        <v>359</v>
+      </c>
+      <c r="L14" s="14">
+        <v>2889</v>
+      </c>
+      <c r="M14" s="12">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="11">
+        <v>30503</v>
+      </c>
+      <c r="D15" s="14">
+        <v>5602</v>
+      </c>
+      <c r="E15" s="11">
+        <v>46618</v>
+      </c>
+      <c r="F15" s="11">
+        <v>170</v>
+      </c>
+      <c r="G15" s="11">
+        <v>86</v>
+      </c>
+      <c r="H15" s="11">
+        <v>249</v>
+      </c>
+      <c r="I15" s="14">
+        <v>84</v>
+      </c>
+      <c r="J15" s="14">
+        <v>22522</v>
+      </c>
+      <c r="K15" s="14">
+        <v>3426</v>
+      </c>
+      <c r="L15" s="14">
+        <v>26594</v>
+      </c>
+      <c r="M15" s="12">
+        <v>9605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="11">
+        <v>9</v>
+      </c>
+      <c r="D16" s="14">
+        <v>619</v>
+      </c>
+      <c r="E16" s="11">
+        <v>9</v>
+      </c>
+      <c r="F16" s="11">
+        <v>9</v>
+      </c>
+      <c r="G16" s="11">
+        <v>9</v>
+      </c>
+      <c r="H16" s="11">
+        <v>9</v>
+      </c>
+      <c r="I16" s="14">
+        <v>9</v>
+      </c>
+      <c r="J16" s="14">
+        <v>9</v>
+      </c>
+      <c r="K16" s="14">
+        <v>9</v>
+      </c>
+      <c r="L16" s="14">
+        <v>9</v>
+      </c>
+      <c r="M16" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1.1829658000006</v>
+      </c>
+      <c r="D17" s="14">
+        <v>1.5887878000012201</v>
+      </c>
+      <c r="E17" s="11">
+        <v>1.7790035999996601</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1.3352000000850199E-2</v>
+      </c>
+      <c r="G17" s="11">
+        <v>5.84972709999965</v>
+      </c>
+      <c r="H17" s="11">
+        <v>11.688836799999899</v>
+      </c>
+      <c r="I17" s="11">
+        <v>9.2970900000000203</v>
+      </c>
+      <c r="J17" s="11">
+        <v>1.3056961000002001</v>
+      </c>
+      <c r="K17" s="11">
+        <v>183.37924109999901</v>
+      </c>
+      <c r="L17" s="11">
+        <v>1115.4357104999999</v>
+      </c>
+      <c r="M17" s="12">
+        <v>993.091442999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="40"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" ht="123" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="32"/>
+    </row>
+    <row r="21" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="9">
+        <v>88</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="9">
+        <v>88</v>
+      </c>
+      <c r="F22" s="9">
+        <v>88</v>
+      </c>
+      <c r="G22" s="9">
+        <v>88</v>
+      </c>
+      <c r="H22" s="9">
+        <v>88</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="9">
+        <v>88</v>
+      </c>
+      <c r="K22" s="9">
+        <v>88</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="48"/>
+      <c r="B23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="11">
+        <v>14663</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="11">
+        <v>18510</v>
+      </c>
+      <c r="F23" s="11">
+        <v>25</v>
+      </c>
+      <c r="G23" s="14">
+        <v>14</v>
+      </c>
+      <c r="H23" s="14">
+        <v>21</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="14">
+        <v>7388</v>
+      </c>
+      <c r="K23" s="14">
+        <v>369</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="48"/>
+      <c r="B24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="11">
+        <v>18098</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="11">
+        <v>18512</v>
+      </c>
+      <c r="F24" s="11">
+        <v>27</v>
+      </c>
+      <c r="G24" s="14">
+        <v>16</v>
+      </c>
+      <c r="H24" s="14">
+        <v>23</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="14">
+        <v>7390</v>
+      </c>
+      <c r="K24" s="14">
+        <v>371</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="48"/>
+      <c r="B25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="14">
+        <v>129625</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="14">
+        <v>161936</v>
+      </c>
+      <c r="F25" s="14">
+        <v>230</v>
+      </c>
+      <c r="G25" s="14">
+        <v>126</v>
+      </c>
+      <c r="H25" s="14">
+        <v>195</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="14">
+        <v>65711</v>
+      </c>
+      <c r="K25" s="14">
+        <v>3403</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="48"/>
+      <c r="B26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="14">
+        <v>12</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="14">
+        <v>12</v>
+      </c>
+      <c r="F26" s="14">
+        <v>15</v>
+      </c>
+      <c r="G26" s="14">
+        <v>14</v>
+      </c>
+      <c r="H26" s="14">
+        <v>13</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="14">
+        <v>12</v>
+      </c>
+      <c r="K26" s="14">
+        <v>12</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="49"/>
+      <c r="B27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5.7938158000000604</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="2">
+        <v>8.7262621999999492</v>
+      </c>
+      <c r="F27" s="2">
+        <v>3.1910799999991399E-2</v>
+      </c>
+      <c r="G27" s="2">
+        <v>12.0065057</v>
+      </c>
+      <c r="H27" s="2">
+        <v>16.582104699999899</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" s="3">
+        <v>4.8949482000000399</v>
+      </c>
+      <c r="K27" s="2">
+        <v>279.9384</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="11">
+        <v>104</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="11">
+        <v>104</v>
+      </c>
+      <c r="F28" s="11">
+        <v>104</v>
+      </c>
+      <c r="G28" s="11">
+        <v>104</v>
+      </c>
+      <c r="H28" s="11">
+        <v>104</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="11">
+        <v>104</v>
+      </c>
+      <c r="K28" s="11">
+        <v>104</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="48"/>
+      <c r="B29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="14">
+        <v>99736</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="14">
+        <v>113339</v>
+      </c>
+      <c r="F29" s="14">
+        <v>29</v>
+      </c>
+      <c r="G29" s="14">
+        <v>17</v>
+      </c>
+      <c r="H29" s="14">
+        <v>56</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" s="14">
+        <v>34330</v>
+      </c>
+      <c r="K29" s="14">
+        <v>1208</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="48"/>
+      <c r="B30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="14">
+        <v>114953</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="14">
+        <v>113341</v>
+      </c>
+      <c r="F30" s="14">
         <v>31</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="48"/>
+      <c r="G30" s="14">
+        <v>19</v>
+      </c>
+      <c r="H30" s="14">
+        <v>58</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="14">
+        <v>34332</v>
+      </c>
+      <c r="K30" s="14">
+        <v>1210</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="48"/>
+      <c r="B31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="14">
+        <v>944130</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="14">
+        <v>1066413</v>
+      </c>
+      <c r="F31" s="14">
+        <v>280</v>
+      </c>
+      <c r="G31" s="14">
+        <v>165</v>
+      </c>
+      <c r="H31" s="14">
+        <v>580</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="14">
+        <v>328509</v>
+      </c>
+      <c r="K31" s="14">
+        <v>12210</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="48"/>
+      <c r="B32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="14">
+        <v>14</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="14">
+        <v>14</v>
+      </c>
+      <c r="F32" s="14">
+        <v>18</v>
+      </c>
+      <c r="G32" s="14">
+        <v>17</v>
+      </c>
+      <c r="H32" s="14">
+        <v>17</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" s="14">
+        <v>14</v>
+      </c>
+      <c r="K32" s="14">
+        <v>15</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="49"/>
+      <c r="B33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="2">
+        <v>61.013817799999998</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="2">
+        <v>105.2413447</v>
+      </c>
+      <c r="F33" s="2">
+        <v>3.9588600000001799E-2</v>
+      </c>
+      <c r="G33" s="2">
+        <v>25.273760199999899</v>
+      </c>
+      <c r="H33" s="2">
+        <v>60.300898999999902</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="2">
+        <v>37.470326</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1349.7637999999999</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="12"/>
+    </row>
+    <row r="35" spans="1:20" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="12"/>
+    </row>
+    <row r="36" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+    </row>
+    <row r="37" spans="1:20" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="17"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="17"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="17"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="17"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="17"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="17"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="17"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="17"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="17"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="17"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="17"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="17"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="17"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+    </row>
+    <row r="53" spans="1:20" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="17"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+    </row>
+    <row r="54" spans="1:20" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="17"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="17"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="17"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="11"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="17"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="11"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="17"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="11"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="17"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="11"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="17"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="11"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="17"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="T62" s="11"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="17"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11"/>
+      <c r="T63" s="11"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="17"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
+      <c r="T64" s="11"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" s="17"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="17"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="11"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="17"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
+      <c r="T67" s="11"/>
+    </row>
+    <row r="68" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="17"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="11"/>
+      <c r="T68" s="11"/>
+    </row>
+    <row r="69" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="11"/>
+      <c r="T69" s="11"/>
+    </row>
+    <row r="70" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="11"/>
+      <c r="T70" s="11"/>
+    </row>
+    <row r="71" spans="1:20" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A71" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" s="53"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="53"/>
+      <c r="H71" s="53"/>
+      <c r="I71" s="53"/>
+      <c r="J71" s="53"/>
+      <c r="K71" s="53"/>
+      <c r="L71" s="53"/>
+      <c r="M71" s="54"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="11"/>
+    </row>
+    <row r="72" spans="1:20" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B72" s="56"/>
+      <c r="C72" s="56"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="56"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="56"/>
+      <c r="J72" s="56"/>
+      <c r="K72" s="56"/>
+      <c r="L72" s="56"/>
+      <c r="M72" s="61"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="11"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" s="62"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="58"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="58"/>
+      <c r="G73" s="58"/>
+      <c r="H73" s="58"/>
+      <c r="I73" s="58"/>
+      <c r="J73" s="58"/>
+      <c r="K73" s="58"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="12"/>
+    </row>
+    <row r="74" spans="1:20" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="B74" s="57"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="57"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="57"/>
+      <c r="G74" s="57"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="57"/>
+      <c r="J74" s="57"/>
+      <c r="K74" s="57"/>
+      <c r="L74" s="57"/>
+      <c r="M74" s="64"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="65"/>
+      <c r="B75" s="59"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="59"/>
+      <c r="H75" s="59"/>
+      <c r="I75" s="59"/>
+      <c r="J75" s="59"/>
+      <c r="K75" s="59"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="12"/>
+    </row>
+    <row r="76" spans="1:20" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" s="67"/>
+      <c r="C76" s="67"/>
+      <c r="D76" s="67"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="67"/>
+      <c r="H76" s="67"/>
+      <c r="I76" s="67"/>
+      <c r="J76" s="67"/>
+      <c r="K76" s="67"/>
+      <c r="L76" s="67"/>
+      <c r="M76" s="68"/>
+    </row>
+    <row r="77" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A2:K2"/>
+  <mergeCells count="24">
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A36:M36"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:M20"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="I37:M37"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="C77:I77"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A71:M71"/>
+    <mergeCell ref="A73:K73"/>
+    <mergeCell ref="A75:K75"/>
+    <mergeCell ref="A72:M72"/>
+    <mergeCell ref="A74:M74"/>
+    <mergeCell ref="A76:M76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="33" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Report.xlsx
+++ b/Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janma\Documents\JM\Unecrypted\Udacity - Data Science\AI Nanodegree\Project 2\My Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6E9902-AB67-4BDA-A57A-255187DF6488}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDF277E-A9F8-4077-93E1-F8AB6E478854}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="39">
   <si>
     <t>Air cargo problem 1</t>
   </si>
@@ -112,27 +112,7 @@
     <t>informed searches</t>
   </si>
   <si>
-    <t>Data of Search algorithms for Air cargo problems</t>
-  </si>
-  <si>
-    <t>Analysis of Search algorithms for Air Cargo problems</t>
-  </si>
-  <si>
     <t>*skipped</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- - depth first search as it does not find an optimal solution (619 plan length vs optimal solution consisting of 9 for Air Cargo Problem 2)
- - greedy best first search (h_pg_setlevel)
- - a* search (h_pg_maxlevel)
- - a* search (h_pg_setlevel)</t>
-  </si>
-  <si>
-    <t>* To balance between run time and requirements (=at least one uninformed search, two heuristics with greedy best first search, and two heuristics with A* on problems 3 and 4) the following algorithms were excluded :
- - depth first search as it does not find an optimal solution (619 plan length vs optimal solution consisting of 9 for Air Cargo Problem 2)
- - greedy best first search (h_pg_setlevel)
- - a* search (h_pg_maxlevel)
- - a* search (h_pg_setlevel)</t>
   </si>
   <si>
     <t>Answer to questions</t>
@@ -208,14 +188,106 @@
     </r>
   </si>
   <si>
-    <t>The chart after removing outliers:
-- removed Depth First Search (DFS)</t>
+    <t xml:space="preserve"> =&gt;  Algorithms exclusion for Cargo problem 3 and 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+* To balance between run time and requirements (=at least one uninformed search, two heuristics with greedy best first search, and two heuristics with A*)
+the following algorithms are excluded :
+ - depth first search as it does not find an optimal solution (619 plan length vs optimal solution consisting of 9 for Air Cargo Problem 2)
+ - greedy best first search (h_pg_setlevel)
+ - a* search (h_pg_maxlevel)
+ - a* search (h_pg_setlevel)</t>
+  </si>
+  <si>
+    <t>Cargo 1 and 2 problems</t>
+  </si>
+  <si>
+    <t>Cargo 3 and 4 problems</t>
   </si>
   <si>
     <t>The chart after removing outliers:
-- a* search hp_pg_maxlevel
-- a* search h_pg_setlevel
 - A* search (h_pg_level_sum)</t>
+  </si>
+  <si>
+    <t>The chart after zooming on Greedy Best First Search</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Analysis:  Length of the plan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+You can see in the table for Deep  First Search, that it produces a plan with 619 steps vs optimal plan with 9 steps for Cargo Problem 2. Except that, all algorithms correctly produce an optimal solution.
+For Cargo 3,  produced plans have between 12-15 steps. For Cargo 4 between 14-18 steps.</t>
+    </r>
+  </si>
+  <si>
+    <t>Data of Search algorithms for air cargo problems</t>
+  </si>
+  <si>
+    <t>Analysis of Search algorithms for air cargo problems</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Analysis: Space Complexity  (Number of nodes expanded)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nodes expanded grew exponentially with number of actions for most algorithms.
+(Actions: 20  -&gt; 72 -&gt;88 -&gt; 104)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The sharpest exponential increase in a number of nodes expanded had uninformed search algorithms:
+- uniform cost search 60 -&gt; 5154 -&gt; 18510 -&gt; 113339
+- breath first search 43 -&gt; 3343 -&gt; 14663 -&gt; 99736
+- That fits the expectations, as they expand nodes one by one by without any heuristics
+A* search shown less step exponential increase than uninformed search algorithms:
+-  A* search (h_pg_level_sum) new nodes: 28-&gt; 357 -&gt; 369 -&gt; 1208
+-  A* search (h_unmet_goals) new nodes: 50 -&gt; 2467 -&gt; 7388 -&gt; 34330
+- That fits the expectations, as it uses heuristic guiding it to find the goal quicker
+The least increase in number of nodes expanded had Greedy Best-First search  (h_unmet_goals). Seems to be lineary increasing.
+ - 7 -&gt; 17 -&gt; 25 -&gt; 29</t>
+    </r>
   </si>
   <si>
     <r>
@@ -239,55 +311,20 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-The sharpest increase in  run time for Air Cargo Problem 2 had A* search:
--  A* search (h_max_level) 1115.43s
--  A* search (h_pg_setlevel) 993.09s
--  A* search (h_pg_level_sum) 183.37s
-All uninformed searched (DFS, BFS, Uniform Cost Search) ran under 2s
-The shortest runtime had Greedy Best-First search  (h_unmet_goals) 0.013
-Thus for speed-critical operations Greedy Best-First search (h_unmet_goals) could be an ideal candidate
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Analysis:  Length of the plan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-You can see in the graph outlier  Deep  First Search which produces a (not optimal) plan with 619 steps for Cargo Problem 2.
-The rest of the algorithms produce the same length of the plan (6 steps for Cargo Problem 1, 9 steps for cargo problem 2).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Analysis:  Complexity  (Number of nodes expanded)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>In larger domains uses the least memory Greedy First Search.  Significantly less than A* search which is second and uses less memory than uniformed searches</t>
+Run time grew exponentially with number of actions for most algorithms.
+(Actions: 20  -&gt; 72 -&gt;88 -&gt; 104)
+The sharpest increase  in  run time  had A* search:
+-  A* search (h_pg_level_sum) 0.68s -&gt; 183.37s -&gt;279s -&gt; 1349s
+Uninformed searches ( BFS, Uniform Cost Search) ran under 2s
+for Problem 2, Under 106s for Problem 4 showing exponential grow (although less sharp than for A* search (h_pg_level_sum))
+- breadth first search 0.002s -&gt;1.18s -&gt; 5.79 -&gt; 61.01
+- uniform cost search 0.004s -&gt;1.17s -&gt; 8.72 -&gt; 105.24
+The least runtime increase had Greedy Best-First search  (h_unmet_goals). The runtime increase seems to be O (n * log n).
+ - 0.0016 -&gt; 0.013 -&gt;  0.031-&gt; 0.039
+See comparison with A* search using the same heuristics
+-  A* search (h_unmet_goals) 0.005s -&gt; 1.3s -&gt;4.89s -&gt; 37.47s
+- The most likely cause for increased run time is that A* search had to expand many more nodes to get to the goal and due to overhead with maintaining priority queue.
+To sum it up, for speed-critical operation Greedy Best-First search (h_unmet_goals) could be here an ideal candidate.</t>
     </r>
   </si>
 </sst>
@@ -333,7 +370,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,6 +380,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,23 +636,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -616,160 +653,219 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -862,14 +958,14 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$C$5</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -879,8 +975,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -902,35 +1000,47 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$C$6,'Data &amp; Analysis - Air Cargo'!$C$12)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$C$7,'Data &amp; Analysis - Air Cargo'!$C$13,'Data &amp; Analysis - Air Cargo'!$C$26,'Data &amp; Analysis - Air Cargo'!$C$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$C$11,'Data &amp; Analysis - Air Cargo'!$C$17)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$C$12,'Data &amp; Analysis - Air Cargo'!$C$18,'Data &amp; Analysis - Air Cargo'!$C$31,'Data &amp; Analysis - Air Cargo'!$C$37)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2.9037999997854002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.1829658000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7938158000000604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.013817799999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F005-4B1D-8E8F-F3317EF1D7E7}"/>
@@ -938,95 +1048,24 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$D$5</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$E$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>depth first search</c:v>
+                  <c:v>uniform cost search</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$D$6,'Data &amp; Analysis - Air Cargo'!$D$12)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$D$11,'Data &amp; Analysis - Air Cargo'!$D$17)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1.5582000000904301E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5887878000012201</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F005-4B1D-8E8F-F3317EF1D7E7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>uniform cost search</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1048,38 +1087,138 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$E$6,'Data &amp; Analysis - Air Cargo'!$E$12)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$E$7,'Data &amp; Analysis - Air Cargo'!$E$13,'Data &amp; Analysis - Air Cargo'!$E$26,'Data &amp; Analysis - Air Cargo'!$E$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$E$11,'Data &amp; Analysis - Air Cargo'!$E$17)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$E$12,'Data &amp; Analysis - Air Cargo'!$E$18,'Data &amp; Analysis - Air Cargo'!$E$31,'Data &amp; Analysis - Air Cargo'!$E$37)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>4.5175000000199301E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.7790035999996601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7262621999999492</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105.2413447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-F005-4B1D-8E8F-F3317EF1D7E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>greedy best first search
+ - h_unmet_goals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$F$7,'Data &amp; Analysis - Air Cargo'!$F$13,'Data &amp; Analysis - Air Cargo'!$F$26,'Data &amp; Analysis - Air Cargo'!$F$32)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$F$12,'Data &amp; Analysis - Air Cargo'!$F$18,'Data &amp; Analysis - Air Cargo'!$F$31,'Data &amp; Analysis - Air Cargo'!$F$37)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.6421000000264E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3352000000850199E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1910799999991399E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9588600000001799E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F005-4B1D-8E8F-F3317EF1D7E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1088,7 +1227,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$G$5</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$G$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1099,8 +1238,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1122,35 +1263,47 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$G$6,'Data &amp; Analysis - Air Cargo'!$G$12)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$G$7,'Data &amp; Analysis - Air Cargo'!$G$13,'Data &amp; Analysis - Air Cargo'!$G$26,'Data &amp; Analysis - Air Cargo'!$G$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$G$11,'Data &amp; Analysis - Air Cargo'!$G$17)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$G$12,'Data &amp; Analysis - Air Cargo'!$G$18,'Data &amp; Analysis - Air Cargo'!$G$31,'Data &amp; Analysis - Air Cargo'!$G$37)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.250989199999821</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.84972709999965</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0065057</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.273760199999899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-F005-4B1D-8E8F-F3317EF1D7E7}"/>
@@ -1162,7 +1315,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$H$5</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$H$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1173,8 +1326,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1213,8 +1368,10 @@
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="25400" cap="rnd">
-                <a:noFill/>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
                 <a:round/>
               </a:ln>
               <a:effectLst/>
@@ -1227,35 +1384,47 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$H$6,'Data &amp; Analysis - Air Cargo'!$H$12)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$H$7,'Data &amp; Analysis - Air Cargo'!$H$13,'Data &amp; Analysis - Air Cargo'!$H$26,'Data &amp; Analysis - Air Cargo'!$H$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$H$11,'Data &amp; Analysis - Air Cargo'!$H$17)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$H$12,'Data &amp; Analysis - Air Cargo'!$H$18,'Data &amp; Analysis - Air Cargo'!$H$31,'Data &amp; Analysis - Air Cargo'!$H$37)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.17961519999971601</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>11.688836799999899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.582104699999899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.300898999999902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-F005-4B1D-8E8F-F3317EF1D7E7}"/>
@@ -1263,163 +1432,11 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="7"/>
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$F$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>greedy best first search
- - h_unmet_goals</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$F$6,'Data &amp; Analysis - Air Cargo'!$F$12)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$F$11,'Data &amp; Analysis - Air Cargo'!$F$17)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1.6421000000264E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3352000000850199E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-F005-4B1D-8E8F-F3317EF1D7E7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$I$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>greedy best first search
- - h_pg_setlevel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$I$6,'Data &amp; Analysis - Air Cargo'!$I$12)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$I$11,'Data &amp; Analysis - Air Cargo'!$I$17)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.38819860000012302</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.2970900000000203</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-F005-4B1D-8E8F-F3317EF1D7E7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$J$5</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$J$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1430,8 +1447,12 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1457,35 +1478,47 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$J$6,'Data &amp; Analysis - Air Cargo'!$J$12)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$J$7,'Data &amp; Analysis - Air Cargo'!$J$13,'Data &amp; Analysis - Air Cargo'!$J$26,'Data &amp; Analysis - Air Cargo'!$J$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$J$11,'Data &amp; Analysis - Air Cargo'!$J$17)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$J$12,'Data &amp; Analysis - Air Cargo'!$J$18,'Data &amp; Analysis - Air Cargo'!$J$31,'Data &amp; Analysis - Air Cargo'!$J$37)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>5.0629000002118101E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.3056961000002001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8949482000000399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.470326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-F005-4B1D-8E8F-F3317EF1D7E7}"/>
@@ -1493,167 +1526,11 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:idx val="10"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$L$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>a* search
- - h_pg_maxlevel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$L$6,'Data &amp; Analysis - Air Cargo'!$L$12)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$L$11,'Data &amp; Analysis - Air Cargo'!$L$17)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.63218820000020004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1115.4357104999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-F005-4B1D-8E8F-F3317EF1D7E7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$M$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>a* search
- - h_pg_setlevel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$M$6,'Data &amp; Analysis - Air Cargo'!$M$12)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$M$11,'Data &amp; Analysis - Air Cargo'!$M$17)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.82654090000005398</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>993.091442999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-F005-4B1D-8E8F-F3317EF1D7E7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$K$5</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$K$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1664,8 +1541,12 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1691,35 +1572,47 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$K$6,'Data &amp; Analysis - Air Cargo'!$K$12)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$K$7,'Data &amp; Analysis - Air Cargo'!$K$13,'Data &amp; Analysis - Air Cargo'!$K$26,'Data &amp; Analysis - Air Cargo'!$K$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$K$11,'Data &amp; Analysis - Air Cargo'!$K$17)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$K$12,'Data &amp; Analysis - Air Cargo'!$K$18,'Data &amp; Analysis - Air Cargo'!$K$31,'Data &amp; Analysis - Air Cargo'!$K$37)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.68454999999994404</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>183.37924109999901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>279.9384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1349.7637999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F1D7-45E7-A4F2-3189A4D18EE2}"/>
@@ -2095,7 +1988,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="cs-CZ"/>
-              <a:t>Expansions per algorithm</a:t>
+              <a:t>Run time per algorithm</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2134,14 +2027,14 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$C$5</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2151,8 +2044,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2174,120 +2069,59 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$C$6,'Data &amp; Analysis - Air Cargo'!$C$12)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$C$7,'Data &amp; Analysis - Air Cargo'!$C$13,'Data &amp; Analysis - Air Cargo'!$C$26,'Data &amp; Analysis - Air Cargo'!$C$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$C$7,'Data &amp; Analysis - Air Cargo'!$C$13)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$C$12,'Data &amp; Analysis - Air Cargo'!$C$18,'Data &amp; Analysis - Air Cargo'!$C$31,'Data &amp; Analysis - Air Cargo'!$C$37)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43</c:v>
+                  <c:v>2.9037999997854002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3343</c:v>
+                  <c:v>1.1829658000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7938158000000604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.013817799999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4864-4296-8468-F423A979E236}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$D$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>depth first search</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$D$6,'Data &amp; Analysis - Air Cargo'!$D$12)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$E$7,'Data &amp; Analysis - Air Cargo'!$E$13)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5154</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4864-4296-8468-F423A979E236}"/>
+              <c16:uniqueId val="{00000000-C610-48F6-A5F7-F1C9F8EB09FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$E$5</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$E$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2297,8 +2131,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2320,38 +2156,138 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$E$6,'Data &amp; Analysis - Air Cargo'!$E$12)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$E$7,'Data &amp; Analysis - Air Cargo'!$E$13,'Data &amp; Analysis - Air Cargo'!$E$26,'Data &amp; Analysis - Air Cargo'!$E$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$E$7,'Data &amp; Analysis - Air Cargo'!$E$13)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$E$12,'Data &amp; Analysis - Air Cargo'!$E$18,'Data &amp; Analysis - Air Cargo'!$E$31,'Data &amp; Analysis - Air Cargo'!$E$37)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>4.5175000000199301E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5154</c:v>
+                  <c:v>1.7790035999996601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7262621999999492</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105.2413447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4864-4296-8468-F423A979E236}"/>
+              <c16:uniqueId val="{00000001-C610-48F6-A5F7-F1C9F8EB09FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>greedy best first search
+ - h_unmet_goals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$F$7,'Data &amp; Analysis - Air Cargo'!$F$13,'Data &amp; Analysis - Air Cargo'!$F$26,'Data &amp; Analysis - Air Cargo'!$F$32)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$F$12,'Data &amp; Analysis - Air Cargo'!$F$18,'Data &amp; Analysis - Air Cargo'!$F$31,'Data &amp; Analysis - Air Cargo'!$F$37)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.6421000000264E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3352000000850199E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1910799999991399E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9588600000001799E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C610-48F6-A5F7-F1C9F8EB09FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2360,7 +2296,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$G$5</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$G$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2371,8 +2307,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2394,38 +2332,50 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$G$6,'Data &amp; Analysis - Air Cargo'!$G$12)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$G$7,'Data &amp; Analysis - Air Cargo'!$G$13,'Data &amp; Analysis - Air Cargo'!$G$26,'Data &amp; Analysis - Air Cargo'!$G$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$F$7,'Data &amp; Analysis - Air Cargo'!$F$13)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$G$12,'Data &amp; Analysis - Air Cargo'!$G$18,'Data &amp; Analysis - Air Cargo'!$G$31,'Data &amp; Analysis - Air Cargo'!$G$37)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>0.250989199999821</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>5.84972709999965</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0065057</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.273760199999899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4864-4296-8468-F423A979E236}"/>
+              <c16:uniqueId val="{00000003-C610-48F6-A5F7-F1C9F8EB09FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2434,7 +2384,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$H$5</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$H$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2445,8 +2395,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2485,213 +2437,75 @@
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="25400" cap="rnd">
-                <a:noFill/>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
                 <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-F264-4239-BF34-EF6C219C6A3C}"/>
+                <c16:uniqueId val="{00000005-C610-48F6-A5F7-F1C9F8EB09FA}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$H$6,'Data &amp; Analysis - Air Cargo'!$H$12)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$H$7,'Data &amp; Analysis - Air Cargo'!$H$13,'Data &amp; Analysis - Air Cargo'!$H$26,'Data &amp; Analysis - Air Cargo'!$H$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$H$7,'Data &amp; Analysis - Air Cargo'!$H$13)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$H$12,'Data &amp; Analysis - Air Cargo'!$H$18,'Data &amp; Analysis - Air Cargo'!$H$31,'Data &amp; Analysis - Air Cargo'!$H$37)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>0.17961519999971601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>11.688836799999899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.582104699999899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.300898999999902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4864-4296-8468-F423A979E236}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$F$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>greedy best first search
- - h_unmet_goals</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$F$6,'Data &amp; Analysis - Air Cargo'!$F$12)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$F$7,'Data &amp; Analysis - Air Cargo'!$F$13)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-4864-4296-8468-F423A979E236}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$I$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>greedy best first search
- - h_pg_setlevel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$I$6,'Data &amp; Analysis - Air Cargo'!$I$12)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$I$7,'Data &amp; Analysis - Air Cargo'!$I$13)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-4864-4296-8468-F423A979E236}"/>
+              <c16:uniqueId val="{00000006-C610-48F6-A5F7-F1C9F8EB09FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$J$5</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$J$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2702,8 +2516,12 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2729,194 +2547,50 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$J$6,'Data &amp; Analysis - Air Cargo'!$J$12)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$J$7,'Data &amp; Analysis - Air Cargo'!$J$13,'Data &amp; Analysis - Air Cargo'!$J$26,'Data &amp; Analysis - Air Cargo'!$J$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$J$7,'Data &amp; Analysis - Air Cargo'!$J$13)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$J$12,'Data &amp; Analysis - Air Cargo'!$J$18,'Data &amp; Analysis - Air Cargo'!$J$31,'Data &amp; Analysis - Air Cargo'!$J$37)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>5.0629000002118101E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2467</c:v>
+                  <c:v>1.3056961000002001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8949482000000399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.470326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-4864-4296-8468-F423A979E236}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$L$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>a* search
- - h_pg_maxlevel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$L$6,'Data &amp; Analysis - Air Cargo'!$L$12)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$L$7,'Data &amp; Analysis - Air Cargo'!$L$13)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2887</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-4864-4296-8468-F423A979E236}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$M$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>a* search
- - h_pg_setlevel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$M$6,'Data &amp; Analysis - Air Cargo'!$M$12)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$M$7,'Data &amp; Analysis - Air Cargo'!$M$13)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1037</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-4864-4296-8468-F423A979E236}"/>
+              <c16:uniqueId val="{00000007-C610-48F6-A5F7-F1C9F8EB09FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3052,7 +2726,6 @@
       <c:valAx>
         <c:axId val="1901876015"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3092,7 +2765,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="cs-CZ"/>
-                  <a:t>Expansions</a:t>
+                  <a:t>Run</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="cs-CZ" baseline="0"/>
+                  <a:t> Time (s)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -3286,7 +2963,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="cs-CZ"/>
-              <a:t>Lentgh of the plan per algorithm</a:t>
+              <a:t>Plan length per algorithms</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3325,14 +3002,14 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$C$5</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3342,8 +3019,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3365,120 +3044,59 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$C$6,'Data &amp; Analysis - Air Cargo'!$C$12)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$C$7,'Data &amp; Analysis - Air Cargo'!$C$13,'Data &amp; Analysis - Air Cargo'!$C$26,'Data &amp; Analysis - Air Cargo'!$C$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$C$10,'Data &amp; Analysis - Air Cargo'!$C$16)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$C$11,'Data &amp; Analysis - Air Cargo'!$C$17,'Data &amp; Analysis - Air Cargo'!$C$30,'Data &amp; Analysis - Air Cargo'!$C$36)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-47E5-491D-95AE-460B29AA79AB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$D$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>depth first search</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$D$6,'Data &amp; Analysis - Air Cargo'!$D$12)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$D$10,'Data &amp; Analysis - Air Cargo'!$D$16)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>619</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-47E5-491D-95AE-460B29AA79AB}"/>
+              <c16:uniqueId val="{00000000-FF17-4AC9-82BC-4379E449B397}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$E$5</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$E$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3488,8 +3106,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3511,38 +3131,138 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$E$6,'Data &amp; Analysis - Air Cargo'!$E$12)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$E$7,'Data &amp; Analysis - Air Cargo'!$E$13,'Data &amp; Analysis - Air Cargo'!$E$26,'Data &amp; Analysis - Air Cargo'!$E$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$E$10,'Data &amp; Analysis - Air Cargo'!$E$16)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$E$11,'Data &amp; Analysis - Air Cargo'!$E$17,'Data &amp; Analysis - Air Cargo'!$E$30,'Data &amp; Analysis - Air Cargo'!$E$36)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-47E5-491D-95AE-460B29AA79AB}"/>
+              <c16:uniqueId val="{00000001-FF17-4AC9-82BC-4379E449B397}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>greedy best first search
+ - h_unmet_goals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$F$7,'Data &amp; Analysis - Air Cargo'!$F$13,'Data &amp; Analysis - Air Cargo'!$F$26,'Data &amp; Analysis - Air Cargo'!$F$32)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$F$11,'Data &amp; Analysis - Air Cargo'!$F$17,'Data &amp; Analysis - Air Cargo'!$F$30,'Data &amp; Analysis - Air Cargo'!$F$36)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FF17-4AC9-82BC-4379E449B397}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3551,7 +3271,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$G$5</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$G$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3562,8 +3282,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3585,38 +3307,50 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$G$6,'Data &amp; Analysis - Air Cargo'!$G$12)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$G$7,'Data &amp; Analysis - Air Cargo'!$G$13,'Data &amp; Analysis - Air Cargo'!$G$26,'Data &amp; Analysis - Air Cargo'!$G$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$F$10,'Data &amp; Analysis - Air Cargo'!$F$16)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$G$11,'Data &amp; Analysis - Air Cargo'!$G$17,'Data &amp; Analysis - Air Cargo'!$G$30,'Data &amp; Analysis - Air Cargo'!$G$36)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-47E5-491D-95AE-460B29AA79AB}"/>
+              <c16:uniqueId val="{00000003-FF17-4AC9-82BC-4379E449B397}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3625,7 +3359,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$H$5</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$H$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3636,8 +3370,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3657,225 +3393,61 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent5"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-A209-4FE1-90BB-B52533269753}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$H$6,'Data &amp; Analysis - Air Cargo'!$H$12)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$H$7,'Data &amp; Analysis - Air Cargo'!$H$13,'Data &amp; Analysis - Air Cargo'!$H$26,'Data &amp; Analysis - Air Cargo'!$H$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$H$10,'Data &amp; Analysis - Air Cargo'!$H$16)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$H$11,'Data &amp; Analysis - Air Cargo'!$H$17,'Data &amp; Analysis - Air Cargo'!$H$30,'Data &amp; Analysis - Air Cargo'!$H$36)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-47E5-491D-95AE-460B29AA79AB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$F$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>greedy best first search
- - h_unmet_goals</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$F$6,'Data &amp; Analysis - Air Cargo'!$F$12)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$F$10,'Data &amp; Analysis - Air Cargo'!$F$16)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-47E5-491D-95AE-460B29AA79AB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$I$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>greedy best first search
- - h_pg_setlevel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$I$6,'Data &amp; Analysis - Air Cargo'!$I$12)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$I$10,'Data &amp; Analysis - Air Cargo'!$I$16)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-47E5-491D-95AE-460B29AA79AB}"/>
+              <c16:uniqueId val="{00000006-FF17-4AC9-82BC-4379E449B397}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$J$5</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$J$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3886,8 +3458,12 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3913,59 +3489,75 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$J$6,'Data &amp; Analysis - Air Cargo'!$J$12)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$J$7,'Data &amp; Analysis - Air Cargo'!$J$13,'Data &amp; Analysis - Air Cargo'!$J$26,'Data &amp; Analysis - Air Cargo'!$J$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$J$10,'Data &amp; Analysis - Air Cargo'!$J$16)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$J$11,'Data &amp; Analysis - Air Cargo'!$J$17,'Data &amp; Analysis - Air Cargo'!$J$30,'Data &amp; Analysis - Air Cargo'!$J$36)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-47E5-491D-95AE-460B29AA79AB}"/>
+              <c16:uniqueId val="{00000007-FF17-4AC9-82BC-4379E449B397}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:idx val="10"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$L$5</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$K$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>a* search
- - h_pg_maxlevel</c:v>
+ - h_pg_levelsum</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3975,13 +3567,13 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent5">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3">
+                  <a:schemeClr val="accent5">
                     <a:lumMod val="60000"/>
                   </a:schemeClr>
                 </a:solidFill>
@@ -3991,116 +3583,50 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$L$6,'Data &amp; Analysis - Air Cargo'!$L$12)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$K$7,'Data &amp; Analysis - Air Cargo'!$K$13,'Data &amp; Analysis - Air Cargo'!$K$26,'Data &amp; Analysis - Air Cargo'!$K$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$L$10,'Data &amp; Analysis - Air Cargo'!$L$16)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$K$11,'Data &amp; Analysis - Air Cargo'!$K$17,'Data &amp; Analysis - Air Cargo'!$K$30,'Data &amp; Analysis - Air Cargo'!$K$36)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-47E5-491D-95AE-460B29AA79AB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$M$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>a* search
- - h_pg_setlevel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$M$6,'Data &amp; Analysis - Air Cargo'!$M$12)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$M$10,'Data &amp; Analysis - Air Cargo'!$M$16)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-47E5-491D-95AE-460B29AA79AB}"/>
+              <c16:uniqueId val="{00000008-FF17-4AC9-82BC-4379E449B397}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4275,7 +3801,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="cs-CZ"/>
-                  <a:t>Expansions</a:t>
+                  <a:t>Plan length</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -4469,15 +3995,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="cs-CZ"/>
-              <a:t>Lentgh of the plan per algorithm </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>(except</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> DFS)</a:t>
+              <a:t>Expansions per algorithm</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -4516,14 +4034,14 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$C$5</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4533,8 +4051,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4556,38 +4076,50 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$C$6,'Data &amp; Analysis - Air Cargo'!$C$12)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$C$7,'Data &amp; Analysis - Air Cargo'!$C$13,'Data &amp; Analysis - Air Cargo'!$C$26,'Data &amp; Analysis - Air Cargo'!$C$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$C$10,'Data &amp; Analysis - Air Cargo'!$C$16)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$C$8,'Data &amp; Analysis - Air Cargo'!$C$14,'Data &amp; Analysis - Air Cargo'!$C$27,'Data &amp; Analysis - Air Cargo'!$C$33)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>3343</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14663</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99736</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5ADB-432B-AE8F-476F07061C1A}"/>
+              <c16:uniqueId val="{00000000-2E2B-470E-B93A-9B254D3E28B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4596,7 +4128,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$E$5</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$E$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4606,8 +4138,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4629,47 +4163,147 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$E$6,'Data &amp; Analysis - Air Cargo'!$E$12)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$E$7,'Data &amp; Analysis - Air Cargo'!$E$13,'Data &amp; Analysis - Air Cargo'!$E$26,'Data &amp; Analysis - Air Cargo'!$E$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$E$10,'Data &amp; Analysis - Air Cargo'!$E$16)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$E$8,'Data &amp; Analysis - Air Cargo'!$E$14,'Data &amp; Analysis - Air Cargo'!$E$27,'Data &amp; Analysis - Air Cargo'!$E$33)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>5154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18510</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5ADB-432B-AE8F-476F07061C1A}"/>
+              <c16:uniqueId val="{00000001-2E2B-470E-B93A-9B254D3E28B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>greedy best first search
+ - h_unmet_goals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$F$7,'Data &amp; Analysis - Air Cargo'!$F$13,'Data &amp; Analysis - Air Cargo'!$F$26,'Data &amp; Analysis - Air Cargo'!$F$32)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$F$8,'Data &amp; Analysis - Air Cargo'!$F$14,'Data &amp; Analysis - Air Cargo'!$F$27,'Data &amp; Analysis - Air Cargo'!$F$33)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2E2B-470E-B93A-9B254D3E28B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$G$5</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$G$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4680,8 +4314,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4703,47 +4339,59 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$G$6,'Data &amp; Analysis - Air Cargo'!$G$12)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$G$7,'Data &amp; Analysis - Air Cargo'!$G$13,'Data &amp; Analysis - Air Cargo'!$G$26,'Data &amp; Analysis - Air Cargo'!$G$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$F$10,'Data &amp; Analysis - Air Cargo'!$F$16)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$G$8,'Data &amp; Analysis - Air Cargo'!$G$14,'Data &amp; Analysis - Air Cargo'!$G$27,'Data &amp; Analysis - Air Cargo'!$G$33)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5ADB-432B-AE8F-476F07061C1A}"/>
+              <c16:uniqueId val="{00000003-2E2B-470E-B93A-9B254D3E28B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$H$5</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$H$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4754,8 +4402,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4775,225 +4425,61 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent5"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-3944-4D4A-8D0E-DAEFFDFBF49E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$H$6,'Data &amp; Analysis - Air Cargo'!$H$12)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$H$7,'Data &amp; Analysis - Air Cargo'!$H$13,'Data &amp; Analysis - Air Cargo'!$H$26,'Data &amp; Analysis - Air Cargo'!$H$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$H$10,'Data &amp; Analysis - Air Cargo'!$H$16)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$H$8,'Data &amp; Analysis - Air Cargo'!$H$14,'Data &amp; Analysis - Air Cargo'!$H$27,'Data &amp; Analysis - Air Cargo'!$H$33)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5ADB-432B-AE8F-476F07061C1A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$F$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>greedy best first search
- - h_unmet_goals</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$F$6,'Data &amp; Analysis - Air Cargo'!$F$12)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$F$10,'Data &amp; Analysis - Air Cargo'!$F$16)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-5ADB-432B-AE8F-476F07061C1A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$I$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>greedy best first search
- - h_pg_setlevel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$I$6,'Data &amp; Analysis - Air Cargo'!$I$12)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$I$10,'Data &amp; Analysis - Air Cargo'!$I$16)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-5ADB-432B-AE8F-476F07061C1A}"/>
+              <c16:uniqueId val="{00000006-2E2B-470E-B93A-9B254D3E28B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="6"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$J$5</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$J$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5004,8 +4490,12 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5031,59 +4521,75 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$J$6,'Data &amp; Analysis - Air Cargo'!$J$12)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$J$7,'Data &amp; Analysis - Air Cargo'!$J$13,'Data &amp; Analysis - Air Cargo'!$J$26,'Data &amp; Analysis - Air Cargo'!$J$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$J$10,'Data &amp; Analysis - Air Cargo'!$J$16)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$J$8,'Data &amp; Analysis - Air Cargo'!$J$14,'Data &amp; Analysis - Air Cargo'!$J$27,'Data &amp; Analysis - Air Cargo'!$J$33)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>2467</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7388</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34330</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-5ADB-432B-AE8F-476F07061C1A}"/>
+              <c16:uniqueId val="{00000007-2E2B-470E-B93A-9B254D3E28B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="8"/>
-          <c:order val="7"/>
+          <c:idx val="10"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$L$5</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$K$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>a* search
- - h_pg_maxlevel</c:v>
+ - h_pg_levelsum</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5093,13 +4599,13 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent5">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3">
+                  <a:schemeClr val="accent5">
                     <a:lumMod val="60000"/>
                   </a:schemeClr>
                 </a:solidFill>
@@ -5109,116 +4615,50 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$L$6,'Data &amp; Analysis - Air Cargo'!$L$12)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$K$7,'Data &amp; Analysis - Air Cargo'!$K$13,'Data &amp; Analysis - Air Cargo'!$K$26,'Data &amp; Analysis - Air Cargo'!$K$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$L$10,'Data &amp; Analysis - Air Cargo'!$L$16)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$K$8,'Data &amp; Analysis - Air Cargo'!$K$14,'Data &amp; Analysis - Air Cargo'!$K$27,'Data &amp; Analysis - Air Cargo'!$K$33)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-5ADB-432B-AE8F-476F07061C1A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$M$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>a* search
- - h_pg_setlevel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$M$6,'Data &amp; Analysis - Air Cargo'!$M$12)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$M$10,'Data &amp; Analysis - Air Cargo'!$M$16)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-5ADB-432B-AE8F-476F07061C1A}"/>
+              <c16:uniqueId val="{00000008-2E2B-470E-B93A-9B254D3E28B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5587,7 +5027,14 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="cs-CZ"/>
-              <a:t>Run time per algorithm</a:t>
+              <a:t>Expansions per algorithm</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="cs-CZ"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>- Zoom on Greedy Best First Search</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -5626,25 +5073,28 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="5"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$C$5</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$F$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>breadth first search</c:v>
+                  <c:v>greedy best first search
+ - h_unmet_goals</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5654,11 +5104,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -5666,193 +5116,59 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$C$6,'Data &amp; Analysis - Air Cargo'!$C$12)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$F$7,'Data &amp; Analysis - Air Cargo'!$F$13,'Data &amp; Analysis - Air Cargo'!$F$26,'Data &amp; Analysis - Air Cargo'!$F$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$C$11,'Data &amp; Analysis - Air Cargo'!$C$17)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$F$8,'Data &amp; Analysis - Air Cargo'!$F$14,'Data &amp; Analysis - Air Cargo'!$F$27,'Data &amp; Analysis - Air Cargo'!$F$33)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.9037999997854002E-3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1829658000006</c:v>
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D84D-432C-A5AA-8B61BC837D39}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$D$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>depth first search</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$D$6,'Data &amp; Analysis - Air Cargo'!$D$12)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$D$11,'Data &amp; Analysis - Air Cargo'!$D$17)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1.5582000000904301E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5887878000012201</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D84D-432C-A5AA-8B61BC837D39}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>uniform cost search</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$E$6,'Data &amp; Analysis - Air Cargo'!$E$12)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$E$11,'Data &amp; Analysis - Air Cargo'!$E$17)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4.5175000000199301E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7790035999996601</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D84D-432C-A5AA-8B61BC837D39}"/>
+              <c16:uniqueId val="{00000002-A0C7-42F5-9785-8494F4BA88B9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$G$5</c:f>
+              <c:f>'Data &amp; Analysis - Air Cargo'!$G$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5863,8 +5179,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5886,366 +5204,50 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$G$6,'Data &amp; Analysis - Air Cargo'!$G$12)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$G$7,'Data &amp; Analysis - Air Cargo'!$G$13,'Data &amp; Analysis - Air Cargo'!$G$26,'Data &amp; Analysis - Air Cargo'!$G$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$G$11,'Data &amp; Analysis - Air Cargo'!$G$17)</c:f>
+              <c:f>('Data &amp; Analysis - Air Cargo'!$G$8,'Data &amp; Analysis - Air Cargo'!$G$14,'Data &amp; Analysis - Air Cargo'!$G$27,'Data &amp; Analysis - Air Cargo'!$G$33)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.250989199999821</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.84972709999965</c:v>
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D84D-432C-A5AA-8B61BC837D39}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$H$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>greedy best first search
- - h_pg_maxlevel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent5"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-15EF-446A-9854-6C70FD424147}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$H$6,'Data &amp; Analysis - Air Cargo'!$H$12)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$H$11,'Data &amp; Analysis - Air Cargo'!$H$17)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.17961519999971601</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.688836799999899</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D84D-432C-A5AA-8B61BC837D39}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$F$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>greedy best first search
- - h_unmet_goals</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$F$6,'Data &amp; Analysis - Air Cargo'!$F$12)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$F$11,'Data &amp; Analysis - Air Cargo'!$F$17)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1.6421000000264E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3352000000850199E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-D84D-432C-A5AA-8B61BC837D39}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$I$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>greedy best first search
- - h_pg_setlevel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$I$6,'Data &amp; Analysis - Air Cargo'!$I$12)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$I$11,'Data &amp; Analysis - Air Cargo'!$I$17)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.38819860000012302</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.2970900000000203</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-D84D-432C-A5AA-8B61BC837D39}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Data &amp; Analysis - Air Cargo'!$J$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>a* search
- - h_unmet_goals</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$J$6,'Data &amp; Analysis - Air Cargo'!$J$12)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('Data &amp; Analysis - Air Cargo'!$J$11,'Data &amp; Analysis - Air Cargo'!$J$17)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>5.0629000002118101E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3056961000002001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-D84D-432C-A5AA-8B61BC837D39}"/>
+              <c16:uniqueId val="{00000003-A0C7-42F5-9785-8494F4BA88B9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6420,11 +5422,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="cs-CZ"/>
-                  <a:t>Run</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="cs-CZ" baseline="0"/>
-                  <a:t> Time (s)</a:t>
+                  <a:t>Expansions</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -9369,13 +8367,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>57376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>802822</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>979714</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9403,23 +8401,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1504495</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>52615</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1034143</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>2720</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>802822</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>391660</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2B1758C-BD92-4168-B8F8-BD8745D2C64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1003122-8721-46B4-9F69-D59480AE05C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9441,23 +8439,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>810532</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>58964</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1483179</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>1020535</xdr:rowOff>
+      <xdr:colOff>966108</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>24266</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F7815EA-DE66-4459-BBD6-20C5ECCE2783}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2820A611-27B6-4760-A292-4506F3A758C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9479,23 +8477,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>772884</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>73479</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>13606</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1469571</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>476251</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>997323</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0729CF94-1AEC-4B7A-B4A6-B4A8608E4E23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16D395C9-C3E9-4CE6-8403-F55DFD8C2BE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9517,23 +8515,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>40821</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>48079</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1546411</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>802822</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>476251</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1165411</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>347382</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="12" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5C4D46A-2449-4CB8-AEF7-B9750B23843F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F6314AA-2162-4523-A45F-DB375B824B12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9822,10 +8820,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T77"/>
+  <dimension ref="A1:T80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N77" sqref="A1:N77"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42:H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9846,2090 +8844,2129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:13" s="33" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="22"/>
+    <row r="2" spans="1:13" s="14" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="28"/>
     </row>
-    <row r="3" spans="1:13" s="33" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="43"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
+    <row r="3" spans="1:13" s="14" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="16"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="73"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="34" t="s">
+    <row r="4" spans="1:13" s="14" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="76"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="34" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="36"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="31"/>
     </row>
-    <row r="5" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="16" t="s">
+    <row r="6" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M6" s="34" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="9">
-        <v>20</v>
-      </c>
-      <c r="D6" s="9">
-        <v>20</v>
-      </c>
-      <c r="E6" s="9">
-        <v>20</v>
-      </c>
-      <c r="F6" s="9">
-        <v>20</v>
-      </c>
-      <c r="G6" s="9">
-        <v>20</v>
-      </c>
-      <c r="H6" s="9">
-        <v>20</v>
-      </c>
-      <c r="I6" s="9">
-        <v>20</v>
-      </c>
-      <c r="J6" s="9">
-        <v>20</v>
-      </c>
-      <c r="K6" s="9">
-        <v>20</v>
-      </c>
-      <c r="L6" s="9">
-        <v>20</v>
-      </c>
-      <c r="M6" s="10">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="11">
-        <v>43</v>
-      </c>
-      <c r="D7" s="11">
-        <v>21</v>
-      </c>
-      <c r="E7" s="11">
-        <v>60</v>
-      </c>
-      <c r="F7" s="11">
-        <v>7</v>
-      </c>
-      <c r="G7" s="11">
-        <v>6</v>
-      </c>
-      <c r="H7" s="11">
-        <v>6</v>
-      </c>
-      <c r="I7" s="11">
-        <v>6</v>
-      </c>
-      <c r="J7" s="11">
-        <v>50</v>
-      </c>
-      <c r="K7" s="11">
-        <v>28</v>
-      </c>
-      <c r="L7" s="11">
-        <v>43</v>
-      </c>
-      <c r="M7" s="12">
-        <v>33</v>
+      <c r="A7" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="70">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5">
+        <v>20</v>
+      </c>
+      <c r="F7" s="5">
+        <v>20</v>
+      </c>
+      <c r="G7" s="5">
+        <v>20</v>
+      </c>
+      <c r="H7" s="5">
+        <v>20</v>
+      </c>
+      <c r="I7" s="5">
+        <v>20</v>
+      </c>
+      <c r="J7" s="5">
+        <v>20</v>
+      </c>
+      <c r="K7" s="5">
+        <v>20</v>
+      </c>
+      <c r="L7" s="5">
+        <v>20</v>
+      </c>
+      <c r="M7" s="6">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="11">
-        <v>56</v>
-      </c>
-      <c r="D8" s="11">
-        <v>22</v>
-      </c>
-      <c r="E8" s="11">
-        <v>62</v>
-      </c>
-      <c r="F8" s="11">
-        <v>9</v>
-      </c>
-      <c r="G8" s="11">
-        <v>8</v>
-      </c>
-      <c r="H8" s="11">
-        <v>8</v>
-      </c>
-      <c r="I8" s="11">
-        <v>8</v>
-      </c>
-      <c r="J8" s="11">
-        <v>52</v>
-      </c>
-      <c r="K8" s="11">
-        <v>30</v>
-      </c>
-      <c r="L8" s="11">
-        <v>45</v>
-      </c>
-      <c r="M8" s="12">
-        <v>35</v>
+      <c r="A8" s="24"/>
+      <c r="B8" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="12">
+        <v>43</v>
+      </c>
+      <c r="D8" s="7">
+        <v>21</v>
+      </c>
+      <c r="E8" s="7">
+        <v>60</v>
+      </c>
+      <c r="F8" s="7">
+        <v>7</v>
+      </c>
+      <c r="G8" s="7">
+        <v>6</v>
+      </c>
+      <c r="H8" s="7">
+        <v>6</v>
+      </c>
+      <c r="I8" s="7">
+        <v>6</v>
+      </c>
+      <c r="J8" s="7">
+        <v>50</v>
+      </c>
+      <c r="K8" s="7">
+        <v>28</v>
+      </c>
+      <c r="L8" s="7">
+        <v>43</v>
+      </c>
+      <c r="M8" s="8">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="11">
-        <v>178</v>
-      </c>
-      <c r="D9" s="11">
-        <v>84</v>
-      </c>
-      <c r="E9" s="11">
-        <v>240</v>
-      </c>
-      <c r="F9" s="11">
-        <v>29</v>
-      </c>
-      <c r="G9" s="11">
-        <v>28</v>
-      </c>
-      <c r="H9" s="11">
-        <v>24</v>
-      </c>
-      <c r="I9" s="11">
-        <v>28</v>
-      </c>
-      <c r="J9" s="11">
-        <v>206</v>
-      </c>
-      <c r="K9" s="11">
-        <v>122</v>
-      </c>
-      <c r="L9" s="11">
-        <v>180</v>
-      </c>
-      <c r="M9" s="12">
-        <v>138</v>
+      <c r="A9" s="24"/>
+      <c r="B9" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="12">
+        <v>56</v>
+      </c>
+      <c r="D9" s="7">
+        <v>22</v>
+      </c>
+      <c r="E9" s="7">
+        <v>62</v>
+      </c>
+      <c r="F9" s="7">
+        <v>9</v>
+      </c>
+      <c r="G9" s="7">
+        <v>8</v>
+      </c>
+      <c r="H9" s="7">
+        <v>8</v>
+      </c>
+      <c r="I9" s="7">
+        <v>8</v>
+      </c>
+      <c r="J9" s="7">
+        <v>52</v>
+      </c>
+      <c r="K9" s="7">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7">
+        <v>45</v>
+      </c>
+      <c r="M9" s="8">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="12">
+        <v>178</v>
+      </c>
+      <c r="D10" s="7">
+        <v>84</v>
+      </c>
+      <c r="E10" s="7">
+        <v>240</v>
+      </c>
+      <c r="F10" s="7">
+        <v>29</v>
+      </c>
+      <c r="G10" s="7">
+        <v>28</v>
+      </c>
+      <c r="H10" s="7">
+        <v>24</v>
+      </c>
+      <c r="I10" s="7">
+        <v>28</v>
+      </c>
+      <c r="J10" s="7">
+        <v>206</v>
+      </c>
+      <c r="K10" s="7">
+        <v>122</v>
+      </c>
+      <c r="L10" s="7">
+        <v>180</v>
+      </c>
+      <c r="M10" s="8">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C11" s="71">
         <v>6</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D11" s="10">
         <v>6</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E11" s="10">
         <v>6</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F11" s="10">
         <v>6</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G11" s="10">
         <v>6</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H11" s="10">
         <v>6</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I11" s="10">
         <v>6</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J11" s="10">
         <v>6</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K11" s="10">
         <v>6</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L11" s="10">
         <v>6</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M11" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39"/>
-      <c r="B11" s="7" t="s">
+    <row r="12" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25"/>
+      <c r="B12" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="1">
         <v>2.9037999997854002E-3</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12" s="2">
         <v>1.5582000000904301E-3</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E12" s="2">
         <v>4.5175000000199301E-3</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F12" s="2">
         <v>1.6421000000264E-3</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G12" s="2">
         <v>0.250989199999821</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H12" s="2">
         <v>0.17961519999971601</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I12" s="2">
         <v>0.38819860000012302</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J12" s="2">
         <v>5.0629000002118101E-3</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K12" s="2">
         <v>0.68454999999994404</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L12" s="2">
         <v>0.63218820000020004</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M12" s="9">
         <v>0.82654090000005398</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="9">
-        <v>72</v>
-      </c>
-      <c r="D12" s="15">
-        <v>72</v>
-      </c>
-      <c r="E12" s="9">
-        <v>72</v>
-      </c>
-      <c r="F12" s="9">
-        <v>72</v>
-      </c>
-      <c r="G12" s="9">
-        <v>72</v>
-      </c>
-      <c r="H12" s="9">
-        <v>72</v>
-      </c>
-      <c r="I12" s="9">
-        <v>72</v>
-      </c>
-      <c r="J12" s="9">
-        <v>72</v>
-      </c>
-      <c r="K12" s="9">
-        <v>72</v>
-      </c>
-      <c r="L12" s="9">
-        <v>72</v>
-      </c>
-      <c r="M12" s="10">
-        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="11">
-        <v>3343</v>
-      </c>
-      <c r="D13" s="14">
-        <v>624</v>
-      </c>
-      <c r="E13" s="11">
-        <v>5154</v>
-      </c>
-      <c r="F13" s="11">
-        <v>17</v>
-      </c>
-      <c r="G13" s="11">
-        <v>9</v>
-      </c>
-      <c r="H13" s="11">
-        <v>27</v>
-      </c>
-      <c r="I13" s="14">
-        <v>9</v>
-      </c>
-      <c r="J13" s="14">
-        <v>2467</v>
-      </c>
-      <c r="K13" s="14">
-        <v>357</v>
-      </c>
-      <c r="L13" s="14">
-        <v>2887</v>
-      </c>
-      <c r="M13" s="12">
-        <v>1037</v>
+      <c r="A13" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="70">
+        <v>72</v>
+      </c>
+      <c r="D13" s="11">
+        <v>72</v>
+      </c>
+      <c r="E13" s="5">
+        <v>72</v>
+      </c>
+      <c r="F13" s="5">
+        <v>72</v>
+      </c>
+      <c r="G13" s="5">
+        <v>72</v>
+      </c>
+      <c r="H13" s="5">
+        <v>72</v>
+      </c>
+      <c r="I13" s="5">
+        <v>72</v>
+      </c>
+      <c r="J13" s="5">
+        <v>72</v>
+      </c>
+      <c r="K13" s="5">
+        <v>72</v>
+      </c>
+      <c r="L13" s="5">
+        <v>72</v>
+      </c>
+      <c r="M13" s="6">
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="12">
+        <v>3343</v>
+      </c>
+      <c r="D14" s="10">
+        <v>624</v>
+      </c>
+      <c r="E14" s="7">
+        <v>5154</v>
+      </c>
+      <c r="F14" s="7">
         <v>17</v>
       </c>
-      <c r="C14" s="11">
-        <v>4609</v>
-      </c>
-      <c r="D14" s="14">
-        <v>625</v>
-      </c>
-      <c r="E14" s="11">
-        <v>5156</v>
-      </c>
-      <c r="F14" s="11">
-        <v>19</v>
-      </c>
-      <c r="G14" s="11">
-        <v>11</v>
-      </c>
-      <c r="H14" s="11">
-        <v>29</v>
-      </c>
-      <c r="I14" s="14">
-        <v>11</v>
-      </c>
-      <c r="J14" s="14">
-        <v>2469</v>
-      </c>
-      <c r="K14" s="14">
-        <v>359</v>
-      </c>
-      <c r="L14" s="14">
-        <v>2889</v>
-      </c>
-      <c r="M14" s="12">
-        <v>1039</v>
+      <c r="G14" s="7">
+        <v>9</v>
+      </c>
+      <c r="H14" s="7">
+        <v>27</v>
+      </c>
+      <c r="I14" s="10">
+        <v>9</v>
+      </c>
+      <c r="J14" s="10">
+        <v>2467</v>
+      </c>
+      <c r="K14" s="10">
+        <v>357</v>
+      </c>
+      <c r="L14" s="10">
+        <v>2887</v>
+      </c>
+      <c r="M14" s="8">
+        <v>1037</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="11">
-        <v>30503</v>
-      </c>
-      <c r="D15" s="14">
-        <v>5602</v>
-      </c>
-      <c r="E15" s="11">
-        <v>46618</v>
-      </c>
-      <c r="F15" s="11">
-        <v>170</v>
-      </c>
-      <c r="G15" s="11">
-        <v>86</v>
-      </c>
-      <c r="H15" s="11">
-        <v>249</v>
-      </c>
-      <c r="I15" s="14">
-        <v>84</v>
-      </c>
-      <c r="J15" s="14">
-        <v>22522</v>
-      </c>
-      <c r="K15" s="14">
-        <v>3426</v>
-      </c>
-      <c r="L15" s="14">
-        <v>26594</v>
-      </c>
-      <c r="M15" s="12">
-        <v>9605</v>
+      <c r="A15" s="24"/>
+      <c r="B15" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="12">
+        <v>4609</v>
+      </c>
+      <c r="D15" s="10">
+        <v>625</v>
+      </c>
+      <c r="E15" s="7">
+        <v>5156</v>
+      </c>
+      <c r="F15" s="7">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7">
+        <v>11</v>
+      </c>
+      <c r="H15" s="7">
+        <v>29</v>
+      </c>
+      <c r="I15" s="10">
+        <v>11</v>
+      </c>
+      <c r="J15" s="10">
+        <v>2469</v>
+      </c>
+      <c r="K15" s="10">
+        <v>359</v>
+      </c>
+      <c r="L15" s="10">
+        <v>2889</v>
+      </c>
+      <c r="M15" s="8">
+        <v>1039</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="12">
+        <v>30503</v>
+      </c>
+      <c r="D16" s="10">
+        <v>5602</v>
+      </c>
+      <c r="E16" s="7">
+        <v>46618</v>
+      </c>
+      <c r="F16" s="7">
+        <v>170</v>
+      </c>
+      <c r="G16" s="7">
+        <v>86</v>
+      </c>
+      <c r="H16" s="7">
+        <v>249</v>
+      </c>
+      <c r="I16" s="10">
+        <v>84</v>
+      </c>
+      <c r="J16" s="10">
+        <v>22522</v>
+      </c>
+      <c r="K16" s="10">
+        <v>3426</v>
+      </c>
+      <c r="L16" s="10">
+        <v>26594</v>
+      </c>
+      <c r="M16" s="8">
+        <v>9605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C17" s="12">
         <v>9</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D17" s="10">
         <v>619</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E17" s="7">
         <v>9</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F17" s="7">
         <v>9</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G17" s="7">
         <v>9</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H17" s="7">
         <v>9</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I17" s="10">
         <v>9</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J17" s="10">
         <v>9</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K17" s="10">
         <v>9</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L17" s="10">
         <v>9</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M17" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="6" t="s">
+    <row r="18" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="25"/>
+      <c r="B18" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C18" s="1">
         <v>1.1829658000006</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D18" s="72">
         <v>1.5887878000012201</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E18" s="2">
         <v>1.7790035999996601</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F18" s="2">
         <v>1.3352000000850199E-2</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G18" s="2">
         <v>5.84972709999965</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H18" s="2">
         <v>11.688836799999899</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I18" s="2">
         <v>9.2970900000000203</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J18" s="2">
         <v>1.3056961000002001</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K18" s="2">
         <v>183.37924109999901</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L18" s="2">
         <v>1115.4357104999999</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M18" s="9">
         <v>993.091442999999</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="12"/>
-    </row>
-    <row r="19" spans="1:13" ht="123" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="12"/>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="30" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="76"/>
+    </row>
+    <row r="22" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="1:13" ht="123" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="30" t="s">
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="32"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="40"/>
     </row>
-    <row r="21" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="45" t="s">
+    <row r="25" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D25" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E25" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F25" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G25" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H25" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I25" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J25" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K25" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="8" t="s">
+      <c r="L25" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="M21" s="46" t="s">
+      <c r="M25" s="43" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="9">
-        <v>88</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="9">
-        <v>88</v>
-      </c>
-      <c r="F22" s="9">
-        <v>88</v>
-      </c>
-      <c r="G22" s="9">
-        <v>88</v>
-      </c>
-      <c r="H22" s="9">
-        <v>88</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J22" s="9">
-        <v>88</v>
-      </c>
-      <c r="K22" s="9">
-        <v>88</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
-      <c r="B23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="11">
-        <v>14663</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="11">
-        <v>18510</v>
-      </c>
-      <c r="F23" s="11">
-        <v>25</v>
-      </c>
-      <c r="G23" s="14">
-        <v>14</v>
-      </c>
-      <c r="H23" s="14">
-        <v>21</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J23" s="14">
-        <v>7388</v>
-      </c>
-      <c r="K23" s="14">
-        <v>369</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
-      <c r="B24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="11">
-        <v>18098</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="11">
-        <v>18512</v>
-      </c>
-      <c r="F24" s="11">
-        <v>27</v>
-      </c>
-      <c r="G24" s="14">
-        <v>16</v>
-      </c>
-      <c r="H24" s="14">
-        <v>23</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="14">
-        <v>7390</v>
-      </c>
-      <c r="K24" s="14">
-        <v>371</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
-      <c r="B25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="14">
-        <v>129625</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="14">
-        <v>161936</v>
-      </c>
-      <c r="F25" s="14">
-        <v>230</v>
-      </c>
-      <c r="G25" s="14">
-        <v>126</v>
-      </c>
-      <c r="H25" s="14">
-        <v>195</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J25" s="14">
-        <v>65711</v>
-      </c>
-      <c r="K25" s="14">
-        <v>3403</v>
-      </c>
-      <c r="L25" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M25" s="12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
-      <c r="B26" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="14">
-        <v>12</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="A26" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="70">
+        <v>88</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="5">
+        <v>88</v>
+      </c>
+      <c r="F26" s="5">
+        <v>88</v>
+      </c>
+      <c r="G26" s="5">
+        <v>88</v>
+      </c>
+      <c r="H26" s="5">
+        <v>88</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="5">
+        <v>88</v>
+      </c>
+      <c r="K26" s="5">
+        <v>88</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="45"/>
+      <c r="B27" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="12">
+        <v>14663</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="7">
+        <v>18510</v>
+      </c>
+      <c r="F27" s="7">
         <v>25</v>
       </c>
-      <c r="E26" s="14">
-        <v>12</v>
-      </c>
-      <c r="F26" s="14">
-        <v>15</v>
-      </c>
-      <c r="G26" s="14">
+      <c r="G27" s="10">
         <v>14</v>
       </c>
-      <c r="H26" s="14">
-        <v>13</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J26" s="14">
-        <v>12</v>
-      </c>
-      <c r="K26" s="14">
-        <v>12</v>
-      </c>
-      <c r="L26" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="49"/>
-      <c r="B27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="2">
-        <v>5.7938158000000604</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="2">
-        <v>8.7262621999999492</v>
-      </c>
-      <c r="F27" s="2">
-        <v>3.1910799999991399E-2</v>
-      </c>
-      <c r="G27" s="2">
-        <v>12.0065057</v>
-      </c>
-      <c r="H27" s="2">
-        <v>16.582104699999899</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J27" s="3">
-        <v>4.8949482000000399</v>
-      </c>
-      <c r="K27" s="2">
-        <v>279.9384</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M27" s="13" t="s">
-        <v>25</v>
+      <c r="H27" s="10">
+        <v>21</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="10">
+        <v>7388</v>
+      </c>
+      <c r="K27" s="10">
+        <v>369</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="11">
-        <v>104</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="11">
-        <v>104</v>
-      </c>
-      <c r="F28" s="11">
-        <v>104</v>
-      </c>
-      <c r="G28" s="11">
-        <v>104</v>
-      </c>
-      <c r="H28" s="11">
-        <v>104</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J28" s="11">
-        <v>104</v>
-      </c>
-      <c r="K28" s="11">
-        <v>104</v>
-      </c>
-      <c r="L28" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M28" s="12" t="s">
-        <v>25</v>
+      <c r="A28" s="45"/>
+      <c r="B28" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="12">
+        <v>18098</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="7">
+        <v>18512</v>
+      </c>
+      <c r="F28" s="7">
+        <v>27</v>
+      </c>
+      <c r="G28" s="10">
+        <v>16</v>
+      </c>
+      <c r="H28" s="10">
+        <v>23</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="10">
+        <v>7390</v>
+      </c>
+      <c r="K28" s="10">
+        <v>371</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
-      <c r="B29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="14">
-        <v>99736</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="14">
-        <v>113339</v>
-      </c>
-      <c r="F29" s="14">
-        <v>29</v>
-      </c>
-      <c r="G29" s="14">
-        <v>17</v>
-      </c>
-      <c r="H29" s="14">
-        <v>56</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J29" s="14">
-        <v>34330</v>
-      </c>
-      <c r="K29" s="14">
-        <v>1208</v>
-      </c>
-      <c r="L29" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>25</v>
+      <c r="A29" s="45"/>
+      <c r="B29" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="71">
+        <v>129625</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="10">
+        <v>161936</v>
+      </c>
+      <c r="F29" s="10">
+        <v>230</v>
+      </c>
+      <c r="G29" s="10">
+        <v>126</v>
+      </c>
+      <c r="H29" s="10">
+        <v>195</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="10">
+        <v>65711</v>
+      </c>
+      <c r="K29" s="10">
+        <v>3403</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
-      <c r="B30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="14">
-        <v>114953</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="14">
-        <v>113341</v>
-      </c>
-      <c r="F30" s="14">
-        <v>31</v>
-      </c>
-      <c r="G30" s="14">
+      <c r="A30" s="45"/>
+      <c r="B30" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="71">
+        <v>12</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="10">
+        <v>12</v>
+      </c>
+      <c r="F30" s="10">
+        <v>15</v>
+      </c>
+      <c r="G30" s="10">
+        <v>14</v>
+      </c>
+      <c r="H30" s="10">
+        <v>13</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="10">
+        <v>12</v>
+      </c>
+      <c r="K30" s="10">
+        <v>12</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="46"/>
+      <c r="B31" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="H30" s="14">
-        <v>58</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J30" s="14">
-        <v>34332</v>
-      </c>
-      <c r="K30" s="14">
-        <v>1210</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
-      <c r="B31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="14">
-        <v>944130</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="14">
-        <v>1066413</v>
-      </c>
-      <c r="F31" s="14">
-        <v>280</v>
-      </c>
-      <c r="G31" s="14">
-        <v>165</v>
-      </c>
-      <c r="H31" s="14">
-        <v>580</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J31" s="14">
-        <v>328509</v>
-      </c>
-      <c r="K31" s="14">
-        <v>12210</v>
-      </c>
-      <c r="L31" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M31" s="12" t="s">
-        <v>25</v>
+      <c r="C31" s="1">
+        <v>5.7938158000000604</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="2">
+        <v>8.7262621999999492</v>
+      </c>
+      <c r="F31" s="2">
+        <v>3.1910799999991399E-2</v>
+      </c>
+      <c r="G31" s="2">
+        <v>12.0065057</v>
+      </c>
+      <c r="H31" s="2">
+        <v>16.582104699999899</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="3">
+        <v>4.8949482000000399</v>
+      </c>
+      <c r="K31" s="2">
+        <v>279.9384</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
-      <c r="B32" s="6" t="s">
+      <c r="A32" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="12">
+        <v>104</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="7">
+        <v>104</v>
+      </c>
+      <c r="F32" s="7">
+        <v>104</v>
+      </c>
+      <c r="G32" s="7">
+        <v>104</v>
+      </c>
+      <c r="H32" s="7">
+        <v>104</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="7">
+        <v>104</v>
+      </c>
+      <c r="K32" s="7">
+        <v>104</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="45"/>
+      <c r="B33" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="71">
+        <v>99736</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="10">
+        <v>113339</v>
+      </c>
+      <c r="F33" s="10">
+        <v>29</v>
+      </c>
+      <c r="G33" s="10">
+        <v>17</v>
+      </c>
+      <c r="H33" s="10">
+        <v>56</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="10">
+        <v>34330</v>
+      </c>
+      <c r="K33" s="10">
+        <v>1208</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="45"/>
+      <c r="B34" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="71">
+        <v>114953</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="10">
+        <v>113341</v>
+      </c>
+      <c r="F34" s="10">
+        <v>31</v>
+      </c>
+      <c r="G34" s="10">
+        <v>19</v>
+      </c>
+      <c r="H34" s="10">
+        <v>58</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="10">
+        <v>34332</v>
+      </c>
+      <c r="K34" s="10">
+        <v>1210</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="45"/>
+      <c r="B35" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="71">
+        <v>944130</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="10">
+        <v>1066413</v>
+      </c>
+      <c r="F35" s="10">
+        <v>280</v>
+      </c>
+      <c r="G35" s="10">
+        <v>165</v>
+      </c>
+      <c r="H35" s="10">
+        <v>580</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="10">
+        <v>328509</v>
+      </c>
+      <c r="K35" s="10">
+        <v>12210</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="45"/>
+      <c r="B36" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C36" s="71">
         <v>14</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="14">
+      <c r="D36" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="10">
         <v>14</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F36" s="10">
         <v>18</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G36" s="10">
         <v>17</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H36" s="10">
         <v>17</v>
       </c>
-      <c r="I32" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J32" s="14">
+      <c r="I36" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="10">
         <v>14</v>
       </c>
-      <c r="K32" s="14">
+      <c r="K36" s="10">
         <v>15</v>
       </c>
-      <c r="L32" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M32" s="12" t="s">
-        <v>25</v>
+      <c r="L36" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="49"/>
-      <c r="B33" s="7" t="s">
+    <row r="37" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="46"/>
+      <c r="B37" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C37" s="1">
         <v>61.013817799999998</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="D37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="2">
         <v>105.2413447</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F37" s="2">
         <v>3.9588600000001799E-2</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G37" s="2">
         <v>25.273760199999899</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H37" s="2">
         <v>60.300898999999902</v>
       </c>
-      <c r="I33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J33" s="2">
+      <c r="I37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="2">
         <v>37.470326</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K37" s="2">
         <v>1349.7637999999999</v>
       </c>
-      <c r="L33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M33" s="13" t="s">
-        <v>25</v>
+      <c r="L37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="12"/>
+    <row r="38" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="77"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="8"/>
     </row>
-    <row r="35" spans="1:20" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="12"/>
+    <row r="39" spans="1:20" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A39" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="49"/>
     </row>
-    <row r="36" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
+    <row r="40" spans="1:20" s="81" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="79"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="79"/>
+      <c r="K40" s="79"/>
+      <c r="L40" s="79"/>
+      <c r="M40" s="80"/>
     </row>
-    <row r="37" spans="1:20" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+    <row r="41" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+    </row>
+    <row r="42" spans="1:20" ht="393" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="86"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="J42" s="83"/>
+      <c r="K42" s="83"/>
+      <c r="L42" s="83"/>
+      <c r="M42" s="84"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="11"/>
-      <c r="T43" s="11"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="11"/>
-      <c r="S45" s="11"/>
-      <c r="T45" s="11"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="11"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="11"/>
-      <c r="T47" s="11"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="11"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="11"/>
-      <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11"/>
-      <c r="R52" s="11"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
     </row>
-    <row r="53" spans="1:20" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="12"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
     </row>
-    <row r="54" spans="1:20" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="F54" s="50"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="50"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="12"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11"/>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11"/>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11"/>
+    <row r="58" spans="1:20" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="12"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="11"/>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11"/>
+    <row r="59" spans="1:20" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="82"/>
+      <c r="H59" s="82"/>
+      <c r="I59" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="18"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="17"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="11"/>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="17"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="17"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="11"/>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11"/>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="7"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="11"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11"/>
-      <c r="Q65" s="11"/>
-      <c r="R65" s="11"/>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="11"/>
-      <c r="O66" s="11"/>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="11"/>
-      <c r="R66" s="11"/>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="17"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="11"/>
-      <c r="O67" s="11"/>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="11"/>
-      <c r="R67" s="11"/>
-      <c r="S67" s="11"/>
-      <c r="T67" s="11"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
     </row>
-    <row r="68" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="17"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
-      <c r="L68" s="11"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="11"/>
-      <c r="O68" s="11"/>
-      <c r="P68" s="11"/>
-      <c r="Q68" s="11"/>
-      <c r="R68" s="11"/>
-      <c r="S68" s="11"/>
-      <c r="T68" s="11"/>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" s="12"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="7"/>
     </row>
-    <row r="69" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="11"/>
-      <c r="O69" s="11"/>
-      <c r="P69" s="11"/>
-      <c r="Q69" s="11"/>
-      <c r="R69" s="11"/>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11"/>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" s="12"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
     </row>
-    <row r="70" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="11"/>
-      <c r="N70" s="11"/>
-      <c r="O70" s="11"/>
-      <c r="P70" s="11"/>
-      <c r="Q70" s="11"/>
-      <c r="R70" s="11"/>
-      <c r="S70" s="11"/>
-      <c r="T70" s="11"/>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" s="12"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7"/>
+      <c r="S70" s="7"/>
+      <c r="T70" s="7"/>
     </row>
-    <row r="71" spans="1:20" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A71" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="B71" s="53"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="53"/>
-      <c r="F71" s="53"/>
-      <c r="G71" s="53"/>
-      <c r="H71" s="53"/>
-      <c r="I71" s="53"/>
-      <c r="J71" s="53"/>
-      <c r="K71" s="53"/>
-      <c r="L71" s="53"/>
-      <c r="M71" s="54"/>
-      <c r="N71" s="11"/>
-      <c r="O71" s="11"/>
-      <c r="P71" s="11"/>
-      <c r="Q71" s="11"/>
-      <c r="R71" s="11"/>
-      <c r="S71" s="11"/>
-      <c r="T71" s="11"/>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" s="12"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
     </row>
-    <row r="72" spans="1:20" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="B72" s="56"/>
-      <c r="C72" s="56"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="56"/>
-      <c r="G72" s="56"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="56"/>
-      <c r="J72" s="56"/>
-      <c r="K72" s="56"/>
-      <c r="L72" s="56"/>
-      <c r="M72" s="61"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="11"/>
-      <c r="R72" s="11"/>
-      <c r="S72" s="11"/>
-      <c r="T72" s="11"/>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" s="12"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="7"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A73" s="62"/>
-      <c r="B73" s="58"/>
-      <c r="C73" s="58"/>
-      <c r="D73" s="58"/>
-      <c r="E73" s="58"/>
-      <c r="F73" s="58"/>
-      <c r="G73" s="58"/>
-      <c r="H73" s="58"/>
-      <c r="I73" s="58"/>
-      <c r="J73" s="58"/>
-      <c r="K73" s="58"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="12"/>
+    <row r="73" spans="1:20" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="12"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
     </row>
-    <row r="74" spans="1:20" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="B74" s="57"/>
-      <c r="C74" s="57"/>
-      <c r="D74" s="57"/>
-      <c r="E74" s="57"/>
-      <c r="F74" s="57"/>
-      <c r="G74" s="57"/>
-      <c r="H74" s="57"/>
-      <c r="I74" s="57"/>
-      <c r="J74" s="57"/>
-      <c r="K74" s="57"/>
-      <c r="L74" s="57"/>
-      <c r="M74" s="64"/>
+    <row r="74" spans="1:20" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A74" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" s="48"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="48"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="48"/>
+      <c r="J74" s="48"/>
+      <c r="K74" s="48"/>
+      <c r="L74" s="48"/>
+      <c r="M74" s="49"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="7"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A75" s="65"/>
-      <c r="B75" s="59"/>
-      <c r="C75" s="59"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="59"/>
-      <c r="H75" s="59"/>
-      <c r="I75" s="59"/>
-      <c r="J75" s="59"/>
-      <c r="K75" s="59"/>
-      <c r="L75" s="11"/>
-      <c r="M75" s="12"/>
+    <row r="75" spans="1:20" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="51"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="51"/>
+      <c r="E75" s="51"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="51"/>
+      <c r="H75" s="51"/>
+      <c r="I75" s="51"/>
+      <c r="J75" s="51"/>
+      <c r="K75" s="51"/>
+      <c r="L75" s="51"/>
+      <c r="M75" s="52"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
     </row>
-    <row r="76" spans="1:20" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="B76" s="67"/>
-      <c r="C76" s="67"/>
-      <c r="D76" s="67"/>
-      <c r="E76" s="67"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="67"/>
-      <c r="H76" s="67"/>
-      <c r="I76" s="67"/>
-      <c r="J76" s="67"/>
-      <c r="K76" s="67"/>
-      <c r="L76" s="67"/>
-      <c r="M76" s="68"/>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="53"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="54"/>
+      <c r="I76" s="54"/>
+      <c r="J76" s="54"/>
+      <c r="K76" s="54"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="55"/>
     </row>
-    <row r="77" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
-      <c r="I77" s="23"/>
+    <row r="77" spans="1:20" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B77" s="57"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="57"/>
+      <c r="E77" s="57"/>
+      <c r="F77" s="57"/>
+      <c r="G77" s="57"/>
+      <c r="H77" s="57"/>
+      <c r="I77" s="57"/>
+      <c r="J77" s="57"/>
+      <c r="K77" s="57"/>
+      <c r="L77" s="57"/>
+      <c r="M77" s="58"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" s="59"/>
+      <c r="B78" s="60"/>
+      <c r="C78" s="60"/>
+      <c r="D78" s="60"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="60"/>
+      <c r="G78" s="60"/>
+      <c r="H78" s="60"/>
+      <c r="I78" s="60"/>
+      <c r="J78" s="60"/>
+      <c r="K78" s="60"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="55"/>
+    </row>
+    <row r="79" spans="1:20" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" s="62"/>
+      <c r="C79" s="62"/>
+      <c r="D79" s="62"/>
+      <c r="E79" s="62"/>
+      <c r="F79" s="62"/>
+      <c r="G79" s="62"/>
+      <c r="H79" s="62"/>
+      <c r="I79" s="62"/>
+      <c r="J79" s="62"/>
+      <c r="K79" s="62"/>
+      <c r="L79" s="62"/>
+      <c r="M79" s="63"/>
+    </row>
+    <row r="80" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A12:A17"/>
+  <mergeCells count="27">
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A13:A18"/>
     <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A36:M36"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:M20"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="I37:M37"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="C77:I77"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A71:M71"/>
-    <mergeCell ref="A73:K73"/>
-    <mergeCell ref="A75:K75"/>
-    <mergeCell ref="A72:M72"/>
+    <mergeCell ref="A41:M41"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:M24"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:M5"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="A39:M39"/>
+    <mergeCell ref="C80:I80"/>
     <mergeCell ref="A74:M74"/>
-    <mergeCell ref="A76:M76"/>
+    <mergeCell ref="A76:K76"/>
+    <mergeCell ref="A78:K78"/>
+    <mergeCell ref="A75:M75"/>
+    <mergeCell ref="A77:M77"/>
+    <mergeCell ref="A79:M79"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="I42:M42"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="I59:K59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="33" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="30" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>